--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -2723,7 +2723,7 @@
         <v>การเผยแพร่ในวารสารเกี่ยวกับการบาดเจ็บและเหตุฉุกเฉินเป็นวิธีเดียวในการเปลี่ยนแปลงแนวปฏิบัติ</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>ผู้ขายไม่ได้มีการปรากฏตัวทางกายภาพเพียงพอในรัฐเสมอไป</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>ผู้เล่าเรื่องเป็นแวมไพร์และนี่คือหนึ่งในพลังของพวกเขา.</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">
@@ -2765,7 +2765,7 @@
         <v>หากอัตราดอกเบี้ยปัจจุบันคงที่ ราคาตลาดของหลักทรัพย์รัฐบาลจะคงที่เช่นกัน</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>มันเป็นรถที่แปลกเรียกว่า Saab ไม่แน่ใจว่ามันมีอยู่ที่นั่นหรือเปล่า</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>ไม่มีเหตุผลใดเลยที่รัฐบาลจะห้ามการนำเข้าสินค้านี้</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="172">
@@ -2807,7 +2807,7 @@
         <v>คุณไม่เข้าใจว่าบัตรเครดิตทำงานอย่างไรหรือ?</v>
       </c>
       <c r="D172" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="173">
@@ -2821,7 +2821,7 @@
         <v>เราไม่มีประสบการณ์การเรียกเก็บเงินกับบริษัทนี้เลย</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="174">
@@ -2835,7 +2835,7 @@
         <v>การที่ไม่มีการสื่อสารนั้นหมายถึงไม่มีการโกหก</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="175">
@@ -2849,7 +2849,7 @@
         <v>ถ้าคุณมีสุขภาพไม่ดี บ้านพักคนชราก็เป็นความคิดที่ดี</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>ความต้องการสินค้าจะเพิ่มขึ้น หากมีการเสนอให้ฟรี</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +2877,7 @@
         <v>พวกเขายินดีที่จะเผชิญกับสภาพที่ยากลำบากและอยู่ในรัสเซีย</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="178">
@@ -2891,7 +2891,7 @@
         <v>เราไม่มีงบประมาณสำหรับเกรด</v>
       </c>
       <c r="D178" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="179">
@@ -2905,7 +2905,7 @@
         <v>พระราชวังกราสซีในศตวรรษที่ 18 จะไม่สามารถนำเสนอได้หากไม่มีเกย์ อูลเลนติ</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>พ่อแม่ที่ทำงานกับลูก ๆ จะทำให้ลูก ๆ มีข้อเสียอย่างมาก</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="181">
@@ -2933,7 +2933,7 @@
         <v>เราไม่ได้เรียนรู้เกี่ยวกับเรื่องนี้จากเขา</v>
       </c>
       <c r="D181" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="182">
@@ -2947,7 +2947,7 @@
         <v>ลินคอล์นไม่กังวลและเดินอย่างช้าๆ</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>ฉันคิดทบทวนว่าฉันทำมันได้ดีหรือเปล่า</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="184">
@@ -2975,7 +2975,7 @@
         <v>ฉันตีคุณด้วยดาบเล็กของฉัน</v>
       </c>
       <c r="D184" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="185">
@@ -2989,7 +2989,7 @@
         <v>ชัดเจนว่าเราชนะแล้ว</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>เมื่อไม่มีแสงแดด มันรู้สึกเหมือนฉันกำลังอาศัยอยู่ในถ้ำ</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>การเดินจะทำให้คุณหลงทาง</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>ข้อร้องเรียนในหมู่สมาชิกไม่ได้ให้ผลลัพธ์ใด ๆ</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="189">
@@ -3045,7 +3045,7 @@
         <v>ทุกคนรู้ว่า Tommy ไม่ฉลาดพอที่จะเข้าใจความเชื่อมโยงนั้นเลย</v>
       </c>
       <c r="D189" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="190">
@@ -3059,7 +3059,7 @@
         <v>ฉันมีเหตุผลที่จะสงสัยว่าหญิงสาวที่แมนเชสเตอร์นั้นเป็นเพียงตัวปลอมเท่านั้น</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="191">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -3073,7 +3073,7 @@
         <v>บัญญัติไม่ใช่ศาสนา</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>หากองค์กรมีความเข้าใจที่ชัดเจนเกี่ยวกับวัตถุประสงค์ทางธุรกิจของตน จะสามารถใช้ระบบข้อมูลที่เสนอเพื่อบรรลุวัตถุประสงค์เหล่านั้นได้</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="193">
@@ -3101,7 +3101,7 @@
         <v>เขาจะไม่ทำผิดพลาด</v>
       </c>
       <c r="D193" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="194">
@@ -3115,7 +3115,7 @@
         <v>ผลิตภัณฑ์ได้รับการทดสอบความสามารถในการทนต่อสภาพแวดล้อมที่ไม่เอื้ออำนวย</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>พวกเขาจะบอกว่าพวกเขาพร้อมที่จะไปแล้ว</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>เราจะต้องเปลี่ยนกฎระเบียบ.</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>ฉันไม่ได้อยู่ที่ที่อยู่ดังกล่าว。</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>ประเทศจะสามารถควบคุมกองทัพได้</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>หากตำรวจเชื่อว่าความผิดนั้นถูกกระทำโดยบุคคลเดียว พวกเขาจะจับกุมบุคคลนั้น</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>ฉันจะทำมันเอง</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>ระบบการดูแลสุขภาพจะอยู่ภายใต้ความกดดันหากนโยบายใหม่ถูกนำไปใช้</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="202">
@@ -3227,7 +3227,7 @@
         <v>ฉันทำได้</v>
       </c>
       <c r="D202" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="203">
@@ -3241,7 +3241,7 @@
         <v>พรรคเดโมแครตจะชนะทำเนียบขาว</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>ฉันจะเขียนจดหมายถึงคุณ</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>คุณสามารถนั่งรถไฟได้</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>เธอมีอารมณ์ประชดประชันถ้าเธอเหลือบตามองไปข้างบน</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="207">
@@ -3297,7 +3297,7 @@
         <v>คุณจะไม่ไปไหน</v>
       </c>
       <c r="D207" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="208">
@@ -3311,7 +3311,7 @@
         <v>ค่าใช้จ่ายในการทดสอบจะสูงมาก</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="209">
@@ -3325,7 +3325,7 @@
         <v>ถ้าคุณไม่ได้รับสิ่งใดสิ่งหนึ่ง คุณก็ไม่สมควรได้รับมัน</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>ฉันไม่ใช่คนที่ฉลาด</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="211">
@@ -3353,7 +3353,7 @@
         <v>ภาพยนตร์เรื่องนี้คือคำว่า "ความทุกข์"</v>
       </c>
       <c r="D211" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="212">
@@ -3367,7 +3367,7 @@
         <v>ชายบนดวงจันทร์ไม่มีข้อความที่จะส่ง.</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>คุณจะจบลงเหมือนกับฉัน.</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3395,7 +3395,7 @@
         <v>ถ้าคุณจำไม่ได้ การสนทนานี้ก็จบลงแล้ว</v>
       </c>
       <c r="D214" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="215">
@@ -3409,7 +3409,7 @@
         <v>เราจะเป็นประเทศเดียวในโลกที่ไม่ทำ</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>บริการไปรษณีย์ยังเปิดอยู่</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>ชาวเวียดนามเหนือจะไม่โจมตีเรา หากเราไม่โจมตีพวกเขา</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>แนวคิดนี้ยังไม่ได้รับการพิจารณาอย่างรอบคอบ</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="219">
@@ -3465,7 +3465,7 @@
         <v>มีมีดแทงเข้าที่หัวใจของฉัน</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>ถ้าคุณไม่ทำตามที่ฉันบอก คุณจะต้องเผชิญกับผลที่ตามมา</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="221">
@@ -3493,7 +3493,7 @@
         <v>หากคุณบริสุทธิ์ คุณจะถูกถือว่าบริสุทธิ์</v>
       </c>
       <c r="D221" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="222">
@@ -3507,7 +3507,7 @@
         <v>วุฒิสภาได้ผ่านงบประมาณแล้ว</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>คุณไม่สามารถเชื่อถือได้กับปืน</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>ส่วนเบี่ยงเบนมาตรฐานของการกระจายของอัตรากำไรจากเส้นทางการจัดส่งมีขนาดเล็ก</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>คำถามไม่เหมือนกัน</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>คำกล่าวเก่าจริง ๆ เป็นความจริง</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>ผู้ว่าการคาดว่าจะตั้งอัยการพิเศษขึ้นมา</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>สหรัฐอเมริกาจะกลายเป็นประเทศกล้วย</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="229">
@@ -3619,7 +3619,7 @@
         <v>ผู้เฝ้าดูสามารถจับตาดูสิ่งต่าง ๆ ได้อย่างใกล้ชิดก็ต่อเมื่อพวกเขาจับตาดูผู้เฝ้าดูอย่างใกล้ชิดเช่นกัน</v>
       </c>
       <c r="D230" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="231">
@@ -3633,7 +3633,7 @@
         <v>ผลลัพธ์ของเรื่องนี้คือการสร้างความสนใจในศิลปะในหมู่สาธารณชนมากขึ้น</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>สาเหตุหลักของปัญหายังไม่ได้รับการระบุ</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="233">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -3661,7 +3661,7 @@
         <v>หนังสือเล่มนี้มีเวทมนตร์.</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="234">
@@ -3675,7 +3675,7 @@
         <v>ถ้าคุณขอโต๊ะดีๆ คุณจะได้โต๊ะดีๆ</v>
       </c>
       <c r="D234" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="235">
@@ -3689,7 +3689,7 @@
         <v>เป็นไปไม่ได้ที่สถานการณ์ที่คล้ายกันจะเกิดขึ้นในอนาคต</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>มูลค่ายุติธรรมของทรัพย์สินที่โอนคือมูลค่าเดียวกับทรัพย์สินที่ได้รับ</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="237">
@@ -3717,7 +3717,7 @@
         <v>ผู้ชายที่ประดิษฐ์มันมีปัญหากับมัน</v>
       </c>
       <c r="D237" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         <v>หากเราสามารถกล่าวได้ว่าเรามีเอกลักษณ์เดียว มันก็คือเอกลักษณ์ร่วม.</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>การสวมชุดสูทไปงานเลี้ยงไม่ใช่เรื่องโชคร้าย</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>สุนัขไม่ได้อยู่ในห้อง ดังนั้นเสียงนั้นจึงไม่ได้ยิน.</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>ฟือเรอร์ไม่ได้สั่งการทำลายชาวยิวในค่ายกักกัน</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="242">
@@ -3787,7 +3787,7 @@
         <v>ถ้าคุณอยู่ในสถานการณ์ของฉัน คุณคงจะระมัดระวังมากกว่านี้</v>
       </c>
       <c r="D242" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="243">
@@ -3815,7 +3815,7 @@
         <v>เขาถูกมองว่าเป็นคนโง่ถ้าเขาไม่ได้หยุด</v>
       </c>
       <c r="D244" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="245">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -3815,7 +3815,7 @@
         <v>เขาถูกมองว่าเป็นคนโง่ถ้าเขาไม่ได้หยุด</v>
       </c>
       <c r="D244" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="245">
@@ -3829,7 +3829,7 @@
         <v>ถ้าฉันหลับไป ฉันจะพลาดหนังเรื่องนั้น</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>สถานที่จะไม่สามารถกำหนดได้ว่าปฏิบัติตามข้อกำหนดของกฎหรือไม่</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>เธอดูเหมือนเพิ่งได้รับเงินเดือนมาใหม่ ๆ</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3885,7 +3885,7 @@
         <v>ประธานาธิบดีเป็นนักการเมือง。</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="250">
@@ -3899,7 +3899,7 @@
         <v>ถ้าไม่มีภัยคุกคามที่ชัดเจน การสร้างขึ้นมาซักอย่างก็เป็นความคิดที่ดี</v>
       </c>
       <c r="D250" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="251">
@@ -3913,7 +3913,7 @@
         <v>พรรคจะมีจุดยืนในประเด็นนี้</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>บริการไปรษณีย์จะสามารถชำระภาระผูกพันปัจจุบันต่อรัฐบาลกลางสำหรับสวัสดิการสุขภาพผู้เกษียณอายุได้อย่างน้อยในอีกสิบปีข้างหน้า</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>วิกฤตจะยังคงเลวร้ายลงต่อไป</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>การมีหนี้สินในระดับสูงเป็นปัญหา。</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>สงครามยังไม่สิ้นสุด</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>วิธีที่ดีที่สุดในการแก้ปัญหาคือการกำจัดรถยนต์ทั้งหมดออกไป</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -3997,7 +3997,7 @@
         <v>สภาเมืองจะต้องทำมัน</v>
       </c>
       <c r="D257" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="258">
@@ -4011,7 +4011,7 @@
         <v>ถ้าคุณต้องรอในแถวเป็นเวลานาน อย่าไปที่บาร์ขนม มักจะเต็มไปด้วยเด็กที่เสียงดัง</v>
       </c>
       <c r="D258" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="259">
@@ -4025,7 +4025,7 @@
         <v>ถ้าคุณไม่ทำ คุณจะเสียใจในภายหลัง</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>เทคโนโลยีของวันพรุ่งนี้สามารถแก้ไขปัญหาของวันนี้ได้</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>กระบวนการเข้าสังคมและการเรียนรู้ที่เกิดขึ้นในครอบครัวและในโรงเรียนถูกขัดจังหวะ.</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>ไวน์สามารถทำเป็นน้ำส้มสายชูได้</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>ดอลลาร์จะลดลงและเยนจะเพิ่มขึ้น</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>การแก้ไขจะมีผลบังคับใช้ตั้งแต่วันที่ 1 มกราคม 2560.</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>สิ่งเดียวที่สามารถช่วยเราได้คือถ้าเราสามารถเข้าถึงพื้นที่ของความเข้าใจร่วมกันได้</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="266">
@@ -4123,7 +4123,7 @@
         <v>เขตการศึกษาไม่สามารถออกพันธบัตรได้</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>ยังไม่ชัดเจนว่าผลผลิตแรงงานจะถูกปรับเปลี่ยนหากค่าแรงไม่ได้รับการปรับปรุง</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="268">
@@ -4151,7 +4151,7 @@
         <v>คนดีไม่ได้หมายความว่าต้องเป็นคนเลวเสมอไป</v>
       </c>
       <c r="D268" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         <v>คุณสมิธเทอร์สเห็นผีแล้ว</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>โมเดลปัจจุบันไม่ดี.</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>การระบุการดื่มสุราอย่างหนักในผู้ป่วยไม่ได้ถูกกำหนดอย่างเคร่งครัดโดยจำนวนเครื่องดื่มที่ดื่มในครั้งเดียว</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>ผู้ผลิตจะต้องจ่ายค่าแรงขั้นต่ำ</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>สัญญาใหม่จะมีผลบังคับใช้ตั้งแต่วันที่ 1 มกราคม 2558.</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">
@@ -4235,7 +4235,7 @@
         <v>ฉันน่าจะรู้วิธีทำมันแล้ว</v>
       </c>
       <c r="D274" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="275">
@@ -4249,7 +4249,7 @@
         <v>ถ้าคุณไม่เป็นคนที่ต้องการความสมบูรณ์แบบมากเกินไป คุณจะสามารถสร้างผลิตภัณฑ์ที่ดีได้</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="276">
@@ -4263,7 +4263,7 @@
         <v>ภาคการเงินไม่สำคัญ</v>
       </c>
       <c r="D276" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="277">
@@ -4277,7 +4277,7 @@
         <v>ขั้นตอนถัดไปที่เหมาะสมคือการติดต่อโปรแกรม Intake เพื่อขอการส่งต่อไปยังโปรแกรม Intake II</v>
       </c>
       <c r="D277" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="278">
@@ -4291,7 +4291,7 @@
         <v>ทหารเสียชีวิตแล้ว</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>ฉันต้องหางานทำ</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="280">
@@ -4319,7 +4319,7 @@
         <v>เขาบอกว่าเขาจะไปกับฉันที่คอนเสิร์ตที่อัลเบิร์ตฮอลล์</v>
       </c>
       <c r="D280" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="281">
@@ -4333,7 +4333,7 @@
         <v>ฉันยังไม่ได้อ่านมันเลย</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>หากอัตราดอกเบี้ยปัจจุบันยังคงที่ ราคาตลาดของหลักทรัพย์รัฐบาลก็จะยังคงที่เช่นกัน</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>องค์กรไม่แสวงหาผลกำไรไม่มีอำนาจในการเปลี่ยนแปลงโลก</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="284">
@@ -4375,7 +4375,7 @@
         <v>ฉันคงทำเช่นนั้น หากฉันอยู่ในตำแหน่งที่จะช่วยได้</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>เครื่องจักรไม่ใช่เจ้านายของคนงาน</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>คุณแน่ใจแล้วใช่ไหม</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>สิ่งนี้จะต้องถูกประเมินใหม่</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="288">
@@ -4431,7 +4431,7 @@
         <v>ฉันคิดว่าคุณฉลาดมาก</v>
       </c>
       <c r="D288" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="289">
@@ -4445,7 +4445,7 @@
         <v>เขาคงจะตอบอยู่ดี</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4459,7 +4459,7 @@
         <v>พวกเขาไม่สามารถจ่ายเงินไปดูหนังได้</v>
       </c>
       <c r="D290" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="291">
@@ -4473,7 +4473,7 @@
         <v>ถ้าคุณต้องมีการโต้เถียง ให้โต้เถียงกับแฟนของคุณ</v>
       </c>
       <c r="D291" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="292">
@@ -4487,7 +4487,7 @@
         <v>หากเรามีคู่ตรงข้าม เราสามารถสร้างความแตกต่างที่ผิดพลาดได้เสมอ</v>
       </c>
       <c r="D292" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="293">
@@ -4501,7 +4501,7 @@
         <v>บริษัทจะถูกปิดกิจการ</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>ประเทศไม่มีความสนใจในปัญหา เนื่องจากสื่อได้ตัดสินใจที่จะเพิกเฉยต่อมัน</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>เด็กไม่ใช่ลูกนอกสมรส</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>หากกฎหมายใหม่ได้รับการอนุมัติ จะมีการจัดตั้งกระทรวงสตรีแยกต่างหากขึ้นมา</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>กองทัพได้ถูกลดขนาดลงอย่างมาก</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>ถ้าคุณไม่ทำการซ่อมแซม คุณจะต้องรับผิดชอบค่าใช้จ่ายทั้งหมดในการซ่อมแซม</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>หากคุณมีข้อร้องเรียน กรุณาเขียนถึงประธานาธิบดี</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="300">
@@ -4599,7 +4599,7 @@
         <v>ฉันรู้ว่าคุณจะบอกฉัน</v>
       </c>
       <c r="D300" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="301">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -4627,7 +4627,7 @@
         <v>บรู๊คลองชิมอาหารไทยเป็นครั้งแรก</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="303">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -4641,7 +4641,7 @@
         <v>P60 คือจดหมายจากสมาชิกคณะกรรมการโรงเรียนถึงบรรณาธิการซึ่งพวกเขาเล่าถึงเหตุการณ์ที่เกิดขึ้นในกรณีนี้</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>ห้องสมุดโรงเรียนมีสมุดบันทึกประจำปี</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>เรื่องนี้ถูกนำเสนอโดยชายคนหนึ่ง</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>คู่มือไม่แนะนำให้ผู้คนชงกาแฟในช่วงกลางวัน</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>ฉันไม่ค่อยเข้ากับเจสันดีนัก</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>พวกเขากำลังพูดถึงไวโอลิน</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>สารบางชนิดจำเป็นต้องถูกนำออกจากตลาดเนื่องจากผลกระทบต่อสิ่งแวดล้อม</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>คณะกรรมการกำลังพิจารณาข้อเสนอเกี่ยวกับพลังงานลม</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>ชายคนนั้นเกลียดประเทศเยอรมนี</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>น้ำจะต้องใช้</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">
@@ -4781,7 +4781,7 @@
         <v>มาร์ค คาเวนดิช ถอนตัวจากตูร์ เดอ ฟรองซ์</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>หลังจากที่คุณชี้แจงว่าทำไมคุณคิดว่าเธอเป็นแหล่งข้อมูลที่ดีสำหรับเรื่องของคุณแล้ว ให้รอจนกว่าจะสัมภาษณ์เสร็จแล้วค่อยแบล็กเมล์พวกเขา</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>ผู้สนับสนุนพระมหากษัตริย์สวมใส่สีเหลืองเท่านั้น</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>คิดถึงความทรงจำที่ดีสามารถเป็นประโยชน์ในการเขียนจดหมาย</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>ลูกศรชี้ไปทางขวาแสดงทางที่ถูกต้อง</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>ผลไม้บางชนิดควรหลีกเลี่ยง</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>ไทด์ไดจะมีอายุสิบแปดปีในวันเกิดครั้งต่อไปของเขา</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>นักเรียนใหม่ต้องการให้มีคนพาไปดูรอบ ๆ</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>ชาวยุโรปเป็นผู้รักษาสันติภาพในบอสเนีย</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>ม้าต้องเป็นม้าที่เชื่อง</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>กระบวนการนี้สามารถใช้ในการดึงข้อมูลจาก DVD ได้</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="324">
@@ -4935,7 +4935,7 @@
         <v>ผู้ตรวจสอบได้รับรองมัน แต่ทราบถึงปัญหาต่างๆ</v>
       </c>
       <c r="D324" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="325">
@@ -4949,7 +4949,7 @@
         <v>ซูซี่ต้องการตัดผมเล็กน้อย</v>
       </c>
       <c r="D325" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="326">
@@ -4963,7 +4963,7 @@
         <v>มันเป็นของเล่นที่ใช้แล้ว</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>ปืนมีราคาแพงและตำรวจต้องการให้เงินถูกเปลี่ยนทิศทางไปยังพวกเขา</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>มายาเกลียดโรงเรียนของเธอ</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>คำกล่าวสุดท้ายในบริบทนี้เป็นการพูดประชดประชัน</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>แรนดี้ดื่มเพียง 11% ของเครื่องดื่มที่เขาซื้อ</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>อย่าลืมล้างมือของคุณก่อนโดยใช้สบู่ฆ่าเชื้อโรค และล้างให้สะอาดด้วยน้ำมากๆ</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>Hellgate ถูกปล่อยออกมาในอเมริกาก่อนประเทศไทย</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>สำนักงานของเขาได้ทำหน้าที่เป็นผู้ดูแลรหัสความเป็นส่วนตัวต่างๆ มาหลายปีแล้ว</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>ซาร่าห์ไม่ได้ซื้อ น้ำกะหล่ำปลี</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>Dire Straits ไม่เคยต้องการเป็นที่นิยมในสหรัฐอเมริกา.</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>คนที่มีสุขภาพดีไม่เคยป่วย</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>อีธานไปเยือนเพื่อนบ้านของอเมริกา</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>มาตรการงบประมาณรวมถึงเงินกู้ที่ชำระคืนแล้ว</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>ทีมต้องการถาดใหม่</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>ทิมตัดสินใจเลิกกับคู่หมั้นก่อนงานแต่งงานเพราะงานเลี้ยงสละโสด</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>กฎหมายอาวุธปืนมีความสำคัญ แต่ไม่ใช่การรักเด็ก</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>กรรมการคุ้มครองข้อมูลส่วนบุคคลได้เป็นผู้สนับสนุนการกำกับดูแล</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>สตีเวนว่ายน้ำมาเป็นเวลานาน</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>สภานิติบัญญัติของแทสเมเนียต้องการย้ายออกจากโฮบาร์ต</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5229,7 +5229,7 @@
         <v>พวกเขาสนับสนุนสนธิสัญญาพันธมิตรเหนือ</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>การให้อาหารลูกสุนัขแรกเกิดต้องการอุปกรณ์มากมาย</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>การพาราเซลลิ่งเป็นความฝันที่เป็นจริงสำหรับลูซี่</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="348">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -5271,7 +5271,7 @@
         <v>ลุงแซมตั้งชื่ออัลบั้มแรกของเขาว่า "ลุงแซมมี่"</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>โจทก์คัดค้านความคิดเห็นของผู้พิพากษาที่ถูกบันทึกไว้ในเอกสาร.</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>รีบ้าสูญเสียนาฬิกาของเธอให้กับผู้ปล้น.</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>วางกระทะบนเตาไฟ</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="352">
@@ -5327,7 +5327,7 @@
         <v>เขาได้กำกับภาพยนตร์เช่น "Hank and the Search for Happiness", "Serendipity" และ "Shall We Dance?"</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>การแก้ปัญหาไม่ได้ขึ้นอยู่กับการต่อสู้ที่มีชีวิตชีวากับมาเฟียยาเสพติดโคลอมเบีย</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>ต้องการเก้าอี้ขนาดใหญ่เพื่อทำสมูทตี้แตงโมโดยใช้สว่าน</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>จอชคิดถึงบ้านของเขา</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="356">
@@ -5397,7 +5397,7 @@
         <v>สามีของฉันพูดถูกเกี่ยวกับการที่ฉันเล่นกอล์ฟไม่เก่ง</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>อเลฮานโดร เกอร์ซี่ เป็นโปรดิวเซอร์ชาวเม็กซิกัน</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>พวกเขาออกเดินทางเวลาเก้าโมงครึ่งเช้า</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>พรรคอนุรักษ์นิยมในแคนาดาต้องการหารือเกี่ยวกับที่อยู่อาศัยที่สามารถจ่ายได้ในสภาผู้แทนราษฎร</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>ไซยาไนด์ไม่จำเป็น</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>เธอบินข้ามแม่น้ำไป</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>ผู้บรรยายต้องการทราบว่า คุณแลนด์รีได้รับข้อมูลทั้งหมดหรือไม่</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>ฉันหวังว่ารัฐมนตรีว่าการกระทรวงการพัฒนาสายพันธุ์มนุษย์และเจ้าหน้าที่ของเธอจะให้ความสนใจกับสิ่งที่ฉันพูดจริง ๆ</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>การวิ่ง 100 เมตรต้องการการฝึกความอดทนเพียงเล็กน้อย</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>อัลลัน เมตเตอร์ ได้กำกับภาพยนตร์สงคราม</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>อิสลามิกจิฮาดต้องการให้ปล่อยตัวผู้นำและยกเลิกการคว่ำบาตรต่ออิหร่าน</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>อันนาโต้ตอบกับผู้คน</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>ต้นไม้ล้มลง.</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>กฎหมายแรงงานได้ก้าวหน้าในสภา</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>เควิน วินเซนต์ อายุ 44 ปี จากอาร์ลิงตัน รัฐเวอร์จิเนีย กล่าวว่า ภรรยาของเขาซื้อยาอะเซตามิโนเฟนแบรนด์อาลีฟ และเขาต้องการทราบข้อมูลเพิ่มเติมเกี่ยวกับปัญหานี้</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>เสื้อแดงเป็นผู้สนับสนุนชาวชนบทและคนจนและสนับสนุนนายกรัฐมนตรี</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>แรนดี้ซื้อวอดก้า.</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>ประชาชนไม่ต้องการประธานาธิบดีคนใหม่</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>บรอน สโตรแมนมีปัญหากับบล็อก เลสเนอร์</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>อีธานกินอาหารอิตาเลียน</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>แผนข้อมูลของคุณถูกกำหนดโดยผู้ให้บริการโทรศัพท์ของคุณ</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="378">
@@ -5691,7 +5691,7 @@
         <v>ผู้ว่าการบอกเคล็บให้เดินอยู่ด้านใกล้ของถนนขณะกลับบ้าน</v>
       </c>
       <c r="D378" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="379">
@@ -5705,7 +5705,7 @@
         <v>เพลง "I Don't Know What It Is" ของ Rufus Wainwright ถูกปล่อยออกมาหลังจากอัลบั้มที่สองของเขา แต่ก่อนวันที่ 27 กรกฎาคม 2004</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>ในทศวรรษ 1950 สำนักงานสอบสวนกลางของสหรัฐอเมริกา (FBI) เริ่มจัดทำรายชื่อสาธารณะของผู้ที่พวกเขามองว่าเป็นสิบอาชญากรที่ต้องการตัวมากที่สุด</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>ขั้นตอนที่สองในการเป็นหัวหน้าที่ดีในบทบาทเฉพาะคือการมีความเข้าใจที่ยอดเยี่ยมเกี่ยวกับงานและสิ่งที่จำเป็นเพื่อให้ประสบความสำเร็จ</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>ข้อความที่ไม่ระบุชื่อจะไม่เปิดเผยชื่อของคุณ</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>เมืองบาธ รัฐเมน และเคาน์ตี้ซากาดาฮอค ได้รับการเป็นตัวแทนโดยผู้นำพรรคเดโมแครตในสภา แมรี่ สมอล</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>ลูกสาวของเคทเป็นคนที่ไม่ชอบเข้าสังคม</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>ปามุนูวาไม่ได้ตั้งอยู่ในจังหวัดตะวันออก.</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="386">
@@ -5817,7 +5817,7 @@
         <v>แซมมี่ฝึกซ้อมเบสบอลอย่างขยันขันแข็ง</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>งานอดิเรกในวัยเด็กของสตีเวนกลายเป็นอาชีพ</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>ผู้คนในรัฐบาลกำลังโทษกันและมีความเกลียดชัง</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>What a Girl Wants ได้รับการรับรองระดับเงินในเบลเยียม。</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>อาการเบื่ออาหาร (Anorexia nervosa) ถูกเข้าใจผิดว่าเป็นอาการที่มีลักษณะของการจำกัดอาหาร</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>ทีน่า เทอร์เนอร์ได้ทำเพลงสำหรับภาพยนตร์อินเดียน่า โจนส์</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>ไวแอตต์ เอิร์ป เป็นมนุษย์</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>ทีนา เทิร์นเนอร์ได้ทำเพลงสำหรับโกลเดนอาย</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>เดมี โลวาโต เป็นผู้สนับสนุนขนมขบเคี้ยว</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>ดีเจคาเลดเปลี่ยนชื่อหลังจากวันที่ 11 กันยายน 2008</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>บาร์บารา บุช ก่อตั้งมูลนิธิบาร์บารา บุช เพื่อการอ่านออกเขียนได้ของเด็ก</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="398">
@@ -5971,7 +5971,7 @@
         <v>แรนดัลล์ แฟลกก์ ได้รับการนำเสนอใน The Stand และ Dark Tower.</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>What a Girl Wants ได้รับการรับรองทองคำในสหรัฐอเมริกา</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>เมแกน ฟ็อกซ์ ทำงานร่วมกับ เฟธ ฟอร์ด</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>แบทแมน: อัศวินรัตติกาลเกิดขึ้นในเมืองก็อตแธม</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">
@@ -6027,7 +6027,7 @@
         <v>ไฟต์คลับนำแสดงโดยแบรด พิตต์</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="403">
@@ -6055,7 +6055,7 @@
         <v>ด็อกเตอร์ผู้เดินทางคนเดียว</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>เฮเลน ฮันต์แสดงในภาพยนตร์ 5 เรื่องที่เฮเลน ฮันต์กินเบอร์เกอร์</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>เจฟฟ์ เบซอส เป็นผู้ก่อตั้งเฟซบุ๊ก</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>อัลบั้ม Break Every Rule ของทีนา เทิร์นเนอร์ได้รับรางวัลทองคำ</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>ด็อก ฮอลลิเดย์ ไม่เคยเปิดคลินิกในแอตแลนตา</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>จิตวิทยาเป็นสาขาหนึ่งในวงการวิชาการ</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6139,7 +6139,7 @@
         <v>นเรนทรา โมดี เป็นนักการเมืองชาวอินเดีย</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>ด็อกเตอร์ผู้ได้รับการแสดงโดยนักแสดงหลายคน</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6167,7 +6167,7 @@
         <v>แคปแลนต้องการเห็นวิสัยทัศน์ของเขาเป็นจริง</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>เขาได้รับรายงานที่แสดงสิ่งที่เขาต้องการทุกปี</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="414">
@@ -6223,7 +6223,7 @@
         <v>สื่อจำเป็นต้องมีการปรับโครงสร้างเพื่อกำจัดการรั่วไหลใด ๆ</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>เคลย์แมนต้องการให้คนอื่นเชื่อว่าเขามีเหตุผล</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>โลกจะดำเนินไปด้วยการชี้นำที่ดีจากเศรษฐศาสตร์มหภาค</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>จอยซ์หาชิ้นส่วนที่เธอกำลังมองหาไม่เจอ</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="420">
@@ -6293,7 +6293,7 @@
         <v>ผู้หญิงไม่มีความปรารถนาก่อนตาย</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>แม้ว่าจะมีความหวังสูงในช่วงเริ่มต้นที่มีแนวโน้มดี แบรนด์นี้กลับประสบกับการลดลงอย่างต่อเนื่อง</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>บาสเซ็ตฮาวด์ทุกตัวมีสัญชาตญาณที่ดี</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>ฉันชอบรถยนต์มาสด้าทุกคัน</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>พวกเขาต้องการให้มีคนฟัง.</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>พวกเขาต้องการรู้ชื่อของผู้ชายคนนี้</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>คำแถลงของเกรนสแปนจำเป็นต้องมีการปรับปรุงใหม่</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="428">
@@ -6405,7 +6405,7 @@
         <v>ผู้หญิงคนนี้โสด</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="430">
@@ -6433,7 +6433,7 @@
         <v>ไมโครซอฟท์เป็นผู้เล่นที่มีอำนาจในตลาดของตน โดยมีความสามารถในการแก้ไขปัญหาได้อย่างมีประสิทธิภาพ</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>Springer ไม่เป็นที่นิยม.</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>ทุกคนควรให้ความสนใจกับเรื่องของตัวเองเกี่ยวกับชีวิตรักของเธอ</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>อิงกลิสสร้างถนนยาวสายหนึ่ง</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>ยังมีคนที่ต้องการมอบของขวัญอยู่เสมอ</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>ทหารต้องการช่วยเธอ</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>แมคเคนต้องการเพิ่มภาษีสำหรับทุกคน</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>ตัวเอกและพี่น้องของเธอเติบโตในประเทศญี่ปุ่น</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>ผู้ถูกปล่อยตัวมีความประพฤติตามกฎหมายเสมอ</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>เจสซี เวนทูรา ไม่ต้องการให้แพทชนะการเสนอชื่อ.</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>เทคโนโลยีใหม่ทำให้ข่าวด่วนถูกนำเสนอในหนังสือพิมพ์</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>มันเป็นจำนวนที่น้อยเมื่อเปรียบเทียบกับสิ่งที่ต้องการ</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>กลุ่มคิรค์บัซเซอร์ต้องการเงินจากเขา</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>พรรครีพับลิกันมักจะพยายามคืนสิ่งต่างๆ ให้กับผู้มีสิทธิเลือกตั้งที่ยากจนเมื่อมีการขาดดุลงบประมาณ</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>PointCast กำลังพยายามสร้างผลิตภัณฑ์ซอฟต์แวร์ตัวแรกในฐานะบริษัท</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>เบตเทลไฮม์ให้ความสำคัญกับการเป็นผู้แนะนำ</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>นักวิจารณ์ที่ตื่นตระหนกเกี่ยวกับการรักษานิยายในวันนี้เคยต้องการฆ่านิยายเมื่อ 40 ปีก่อน</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>อาชีพของพอลลอคสั้นลง</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="449">
@@ -6685,7 +6685,7 @@
         <v>ผู้หญิงตอบสนองความต้องการความเร็วของผู้ชาย</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6699,7 +6699,7 @@
         <v>การตัดระบบการชำระเงินสังคมสร้างความกดดันให้กับผู้นำประเทศ</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>รัฐบาลยุโรปเรียกเก็บภาษีสูงจากบริการโทรกลับ</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="452">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -6727,7 +6727,7 @@
         <v>รัฐบาลกลางทราบดีว่าเงินช่วยเหลือจากภัยพิบัตินั้นเป็นที่ต้องการอย่างมาก</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>ฉันมีความสุขอย่างเต็มที่กับสิ่งที่กำลังเกิดขึ้น</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>บางคนต้องการที่จะยกเลิกการตั้งอัยการพิเศษ</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>ฉันต้องการหากองไฟของกาเบรียล มันเป็นสิ่งที่ฉันชื่นชอบที่สุด</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>LSC มีข้อสงสัยเกี่ยวกับประสิทธิภาพของแนวทางที่เสนอไว้</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>ทอมมี่อยากรู้จริงๆ</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6811,7 +6811,7 @@
         <v>การตรวจสอบนี้จะพยายามหักล้างเหตุผลในการแทรกแซง</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>ไม่สามารถทราบได้ว่ากฎหมายมีผลบังคับใช้ได้ผลหรือไม่</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>การมองสิ่งที่อยู่ในกระป๋องทำให้เขารู้สึกอยากอาเจียน</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>เธอรู้สึกประหม่าแม้ว่าจะไม่อยากเป็นเช่นนั้น</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="462">
@@ -6867,7 +6867,7 @@
         <v>ลูกชายของฉันอยากมีสุนัขมากเลย</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>ความต้องการในการฝึกอบรมและการดูแลเพิ่มขึ้นเมื่อมีหลายสถานที่</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>แม้ว่าเขาจะชอบสภาพแวดล้อมของเขาโดยทั่วไป แต่เขาต้องการที่จะออกไปในไม่ช้าเพื่อหลีกเลี่ยงฝนตกหนักในฤดูใบไม้ร่วง</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>สป็อคพยายามที่จะนอกใจภรรยาของเขา</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>ราคาจำเป็นต้องถูกจำกัด。</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="467">
@@ -6937,7 +6937,7 @@
         <v>สามีของฉันมีความสุขที่จะให้ฉันดูแลดอกไม้ ในขณะที่เขาดูแลสนามหญ้าในแบบที่เขาชอบ</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>พวกเขาทำให้การรวมตัวของครอบครัวเรายุ่งเหยิงจริงๆ</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>ฉันต้องการซื้อบ้านที่มีระเบียง แต่ฉันตัดสินใจที่จะซื้อบ้านที่ไม่มีระเบียงแทน</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>พรรคต้องการให้เขาออกไปโดยเร็วที่สุด</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>ฉันตัดสินใจว่าฉันไม่จำเป็นต้องกินอาหาร</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>Vrenna ต้องการทราบว่า Kal จะไปหรือไม่</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>ไม่มีตัวแทนคนใดที่ยินดีจะโกหกเพื่อคลินตันในกรณีใด ๆ ทั้งสิ้น</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="474">
@@ -7035,7 +7035,7 @@
         <v>เราต้องการที่จะโอนเงินให้ลูวินสกี้</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>ความต้องการด้านฟังก์ชันและการสนับสนุนมักจะสอดคล้องกันเสมอ</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>ดรูว์ไม่ต้องการที่จะทำให้แชนนอนล้มลง</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>พวกเขาทำให้กระบวนการรวมตัวของครอบครัวเป็นเรื่องง่ายจริงๆ</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>ฉันหวังว่าฉันจะได้เห็นมันสักวันหนึ่ง</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>ในช่วงเวลานี้ ครอบครัวบุชไม่ต้องการเกี่ยวข้องกับฉันเลย</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>เราต้องจำบางความคิดไว้บ้าง..</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>นักดาราศาสตร์รู้สึกงงงวยกับคำถามว่าทำไมผู้คนถึงต้องการถ่านหินและน้ำมันแม้ว่าพวกเขาจะเคยไปอวกาศแล้วและถามหาสาเหตุของความสับสนนี้</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>GAO และ IGs จำเป็นต้องมีความสัมพันธ์ที่แน่นแฟ้น</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="483">
@@ -7175,7 +7175,7 @@
         <v>เราต้องการเด็ก ๆ</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>เรามีความปรารถนาที่จะสร้างความหวังเล็กน้อยผ่านโลโก้ HRC</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>ฉันได้ปูถนนเข้าบ้านใหม่ทั้งหมดในฤดูใบไม้ผลิถัดไป</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>แจ็คสันต้องการความช่วยเหลือ</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>ระยะที่สองถูกวางแผนไว้ในช่วงปลายศตวรรษที่ 17</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>ฉันจำเป็นต้องออกไป</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>บทความในนิตยสารคือที่ที่ฉันอ่านมัน</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>Gilder ไม่ต้องการข้ออ้างใด ๆ ในการเขียนงานเทคนิค</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="492">
@@ -7287,7 +7287,7 @@
         <v>ผู้นำที่ดีสามารถช่วยให้องค์กรเอาชนะความต้านทานต่อการเปลี่ยนแปลงได้</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="493">
@@ -7301,7 +7301,7 @@
         <v>มันต้องถูกตั้งเวลาอย่างต่อเนื่องและมีความแม่นยำภายในห้านาที</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>พวกเขารู้ถึงพลังของการมีข้อมูล.</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>มันยากที่จะหาว่าสำนักงานของเขาอยู่ที่ไหน</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="496">
@@ -7343,7 +7343,7 @@
         <v>ฉันคิดว่าฉันอยากเป็นเขา</v>
       </c>
       <c r="D496" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="497">
@@ -7357,7 +7357,7 @@
         <v>เขาต้องการเวลา</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>ผู้อยู่อาศัยต้องการรับจดหมายเวลา 8:00 น.</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="499">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -7385,7 +7385,7 @@
         <v>เพราะพวกเขาเป็นฮินดู พรรคคองเกรสของเนห์รูจึงนำโดยพวกสังคมนิยม</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>ซินเธียแพ้หญ้าและไม่ยอมสัมผัสมัน</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="501">
@@ -7413,7 +7413,7 @@
         <v>การทิ้งระเบิดประเทศทำให้คะแนนความนิยมของคุณลดลง</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>Fridlund-Hume เตือนว่าอย่าพยายามมากเกินไปที่จะดูเหมือนถูกต้อง</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>ในสหภาพโซเวียตมีวัฒนธรรมที่แตกต่างกันมากมายพยายามทำให้มันทำงานในประเทศเดียว</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>ฉันไม่สามารถใส่เสื้อผ้าอะไรก็ได้ขณะทำงานจากที่บ้านได้อย่างน่าเสียดาย</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>ฉันต้องการให้คุณมีอิสระในการตัดสินใจตามที่คุณต้องการ</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>คุณต้องติดตามถนนหินที่สำคัญไว้ด้วยนะ</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>ฉันรู้ว่าปานามาให้ความสำคัญกับยาเสพติดอย่างมาก</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>แบบทดสอบที่รวมอยู่สามารถใช้ในการวินิจฉัยปัญหาสุขภาพได้</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>ต้องการมีส่วนร่วมในความตื่นเต้น</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>ประธานต้องการรักษาความแข็งแกร่งของภารกิจ</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>เบอร์แมนแล่นเรือข้ามมหาสมุทรในเส้นทางจิตวิญญาณ</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>ฉันอยากบอกเธอว่าอย่าพูดแบบนั้น</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>ฉันจะบังคับเอ็มิลี่ให้เป็นแบบที่ฉันต้องการ</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="514">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -7595,7 +7595,7 @@
         <v>ผู้สนับสนุนการเลือกในช่วงปี 70 ไม่ต้องการเชื่อมโยงกับขบวนการสตรีนิยมที่กำลังเกิดขึ้น</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>ชัดเจนว่าเขาไม่จำเป็นต้องใช้วิธีการใด ๆ เพื่อให้ประสบความสำเร็จ</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>คุณต้องใช้กล้องส่องทางไกลเพื่อดูรายละเอียดของชั้นที่สามของโค้งอย่างชัดเจน</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>คุณแค่หวังว่าเขาจะกระทำความผิดนั้นใช่ไหม?</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>"ฉันไม่ต้องการขายอาหารให้กับผู้ที่ไม่สามารถชื่นชมธรรมชาติที่แท้จริงและน่าพอใจของมันได้" เขาตอบ.</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7665,7 +7665,7 @@
         <v>การฟื้นฟูโตเกียวมีการวางแผนที่ไม่ดี</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="520">
@@ -7679,7 +7679,7 @@
         <v>พวกเขาต้องการให้ฉันปลูกกุหลาบที่ทางเข้าของพวกเขา</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>ฟังก์ชันเว็บไซต์แรกจะเปลี่ยนเส้นทางคุณไปยังหน้าแรก</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>ไรเออร์สันเชื่อว่าจำเป็นต้องมีกฎหมายที่เข้มงวดมากขึ้นเพื่อการปกป้องสิ่งแวดล้อม</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>เขาต้องการให้วัยรุ่นที่อยู่ในความยากจนใช้มาตรการเพื่อป้องกันไม่ให้พวกเขามีบุตร</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>ฉันกำลังอยู่ในระหว่างการเสนอราคาเพราะฉันต้องการให้บ้านของฉันถูกทาสี</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>พวกเขาต้องการรายได้เสริม</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>ฉันทำในสิ่งที่ฉันต้องการ</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>ฉันรู้ว่าชื่อของคุณคืออันโตนิโอ ไม่จำเป็นต้องพูดซ้ำอีก</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>โดนาวาน โอลสัน ถูกแต่งตั้งเป็นประธานคณะกรรมการผู้ดูแลเขตเมื่อเดือนธันวาคมที่ผ่านมา</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>ฉันอยากเห็นคุณบราวน์ตัวจริง</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>อุณหภูมิจะลดลง。</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="531">
@@ -7833,7 +7833,7 @@
         <v>ฟิลด์สโตนต้องการหาวิธีแก้ไขที่สามารถใช้งานได้สำหรับปัญหาการยึดทรัพย์สิน.</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="532">
@@ -7847,7 +7847,7 @@
         <v>เราจำเป็นต้องตกแต่งห้องหลายห้องในบ้านใหม่</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="533">
@@ -7861,7 +7861,7 @@
         <v>ฉันมีประสบการณ์กับคอมพิวเตอร์ส่วนบุคคลมากกว่า ดังนั้นฉันจึงรับภาระส่วนใหญ่ไว้เอง</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>สามีให้กุญแจเธอเพื่อจอดรถ Orshe</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>ฉันสามารถเลื่อนงานเหล่านี้ไปหลังจากเลิกเรียนได้</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="536">
@@ -7903,7 +7903,7 @@
         <v>จะไม่มีการสร้างเขตการค้าทางเหนือและทางใต้</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7917,7 +7917,7 @@
         <v>โรงแรมแม็กซิมต้องการการปรับปรุงใหม่</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>โอเปกกังวลเกี่ยวกับเศรษฐกิจ</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>วุฒิสภาจะไม่ดำเนินการเกี่ยวกับร่างกฎหมายนี้แน่นอน</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>เป้าหมายของการบริหารคือการสร้างผลิตภัณฑ์และบริการใหม่ที่ตอบสนองความต้องการของผู้บริโภค</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>พวกเขาต้องการชี้ให้เห็นถึงความสำคัญของสงครามต่อต้านการก่อการร้าย</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>ฉันไม่อยากมีเพื่อนเจ้าสาวเลยสักคน</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="543">
@@ -8001,7 +8001,7 @@
         <v>ผลกระทบทางเศรษฐกิจจากสงครามนี้มีขนาดใหญ่มาก</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="544">
@@ -8015,7 +8015,7 @@
         <v>เธอไม่อยากไปอเมริกา แต่เธอก็กลัวที่จะอยู่ในประเทศของเธอ</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>คุณพยายามหาวิธีที่จะทำสิ่งต่าง ๆ ต่อไป</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>ราคาของเสรีภาพคือเสรีภาพในการทำสิ่งที่คุณต้องการ</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>คุณสามารถทำอะไรก็ได้ที่คุณต้องการ</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>เขาต้องการที่จะได้รับข้อมูล</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="549">
@@ -8085,7 +8085,7 @@
         <v>เป็นความคิดที่ดีที่จะขอความช่วยเหลือจากคณะกรรมการการศึกษา</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="550">
@@ -8099,7 +8099,7 @@
         <v>การสนทนาเกี่ยวกับหัวข้อที่นักข่าวสนใจ</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>นวนิยายเรื่องนี้เกี่ยวกับผู้หญิงคนหนึ่งที่ไม่มีใครต้องการในบ้านของเธอเอง</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>โรงเรียนกำลังสร้างห้องประชุมใหม่</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>เหยื่อไม่ต้องการแจ้งความเกี่ยวกับอาชญากรรม</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>รัฐบาลต้องการสร้างระบบสำหรับการดูแลสุขภาพ</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>เรารู้วิธีให้ยาลูกของเราหรือไม่?</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>พวกเขามีโอกาสที่จะทำอะไรก็ได้ที่พวกเขาต้องการ</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>ทนายความมีโอกาสที่ดีในการช่วยเหลือคนจน</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>พระราชบัญญัติพลังงานของรัฐบาลกลางปี 1992 ถูกยกเลิกในปี 2005</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>คุณอยู่ที่นี่</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>บริการค้าปลีกต้องการสัญญา</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>นอลเต้กล่าวว่าเขาไม่เคยต้องการเป็นทนายความ</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>รัฐนี้มีขาย</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>นักวิทยาศาสตร์ต้องการทราบว่าผู้กำหนดนโยบายกำลังทำอะไรอยู่</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>ผู้มีส่วนได้ส่วนเสียสามารถมีส่วนร่วมในกระบวนการวางแผนได้</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>การเปลี่ยนแปลงในอารมณ์ของเธอเกิดจากเพื่อนของเธอ</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>มีความไม่เห็นด้วยอย่างมากระหว่างพรรคการเมืองเกี่ยวกับความจำเป็นของระบบสุขภาพที่จ่ายโดยผู้จ่ายคนเดียว</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>คุณมีปัญหาจริง ๆ</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>เล่นวงล้อที่มี 0 และ 00 บนมัน</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>ฉันบอกคุณไม่ได้ว่าฉันทำอะไร</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>ผู้หญิงไม่รู้ว่าเธอต้องการอะไร</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>เขามักต้องการที่จะถูกเสมอ</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>โปรแกรมใหม่จำเป็นต้องใช้เพื่อแก้ปัญหา.</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>คุณต้องการอยู่ต่อไหม?</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>อำนาจตำรวจเป็นสิ่งจำเป็นในการทำให้กฎหมายมีผลบังคับใช้</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>รัฐบาลไม่ได้ทำในสิ่งที่ประชาชนต้องการ</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>พื้นที่นี้จะดึงดูดผู้คนที่ต้องการมาที่นี่</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>เขากำลังพยายามที่จะรวย</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>เขาจะไม่เริ่มสงคราม</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="579">
@@ -8505,7 +8505,7 @@
         <v>ดร.ลิฟวิงสตันไม่ชอบเขา</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">
@@ -8519,7 +8519,7 @@
         <v>มีความจำเป็นต้องมีโครงการใหม่</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>คุณต้องรู้ชื่อผู้เล่น</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>ประชาชนจำเป็นต้องได้รับการศึกษาอย่างดี</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>เราจำเป็นต้องพิจารณาค่าใช้จ่ายของส่วนประกอบอื่น ๆ ของระบบด้วย</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>เขาได้ตัดสินใจเกี่ยวกับสิ่งที่เขาต้องการทำแล้ว</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>รัฐบาลจำเป็นต้องทำอะไรบางอย่างเกี่ยวกับเศรษฐกิจ</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>เขาเป็นคนที่มีศีลธรรมมาก</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>ฉันต้องการเป็นผู้รับผิดชอบการดำเนินงาน</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>รัฐบาลสหรัฐฯ ต้องการให้ข้อมูลไหลเวียนได้อย่างเสรี</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>คุณไม่จำเป็นต้องมีใบอนุญาตเพื่อไปที่ทะเลสาบ</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>มีความจำเป็นต้องมีการทบทวนวรรณกรรมอย่างละเอียดในหัวข้อนี้</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8673,7 +8673,7 @@
         <v>ฉันไม่อยากไป</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">
@@ -8687,7 +8687,7 @@
         <v>การกระจายแหล่งพลังงานเป็นสิ่งสำคัญสำหรับความมั่นคงด้านพลังงาน</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>คุณแพเจ็ทต้องการบอกว่าจอห์นโชคดี</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>หัวหน้าคณะกรรมการการศึกษาท้องถิ่นมีตำแหน่งที่จะทำในสิ่งที่เขาต้องการทำ</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="595">
@@ -8729,7 +8729,7 @@
         <v>จำเป็นต้องมีการอภิปราย</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="596">
@@ -8743,7 +8743,7 @@
         <v>โดธรากีต้องการบุกเมืองการ์ธ</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="597">
@@ -8757,7 +8757,7 @@
         <v>มีบางอย่างที่ต้องทำเกี่ยวกับเรื่องนี้</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="598">
@@ -8771,7 +8771,7 @@
         <v>ทีมใหม่มีความมุ่งมั่นต่อสิ่งที่โค้ชพยายามทำ</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>ฉันเปิดใจให้เธอมากขึ้นเมื่อฉันไม่รู้สึกประหม่าเท่าไหร่</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>จำเป็นต้องมีการเปลี่ยนแปลงในองค์กร</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>การทดสอบไม่เชื่อถือได้</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="602">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -8827,7 +8827,7 @@
         <v>ชาวแคนาดาฝรั่งเศสสองคน crawled ลงมาจากบ้านปลาเมอรีย์</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="603">
@@ -8841,7 +8841,7 @@
         <v>การจูบในที่สาธารณะต้องได้รับความยินยอมจากผู้ปกครอง</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="604">
@@ -8855,7 +8855,7 @@
         <v>อันเดรีย ฟอน ฮับส์บูร์ก เป็นเด็กที่โตที่สุดในครอบครัวของเธอ。</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8869,7 +8869,7 @@
         <v>มูลนิธิสวนสาธารณะได้เสนอที่ดินในพื้นที่ที่มีความสำคัญสูงกว่า 20 แห่งสำหรับขาย</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="606">
@@ -8883,7 +8883,7 @@
         <v>Terrarium ต้องทำจากพลาสติกหรือกระจก</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="607">
@@ -8897,7 +8897,7 @@
         <v>วัสดุที่ทำขึ้นเพื่อหยุดการกัดเซาะที่ริมฝั่งแม่น้ำไม่สามารถย่อยสลายได้ทางชีวภาพ</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8911,7 +8911,7 @@
         <v>โดนัลด์ คอนรอย เสียชีวิตเมื่ออายุ 67 ปี</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8925,7 +8925,7 @@
         <v>นอกจากการรวบรวมเพลงกับวงดนตรีอัลเทอร์เนทีฟร็อกอเมริกัน 10,000 Maniacs แล้ว แมรี่ แรมซีย์ ยังควรได้รับการพิจารณาเป็นสมาชิกของดูโอ้ฟอล์คร็อก จอห์น &amp; แมรี่ ด้วย</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8953,7 +8953,7 @@
         <v>วาลเดซต้องการให้คุณนั่งตัวตรง</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8967,7 +8967,7 @@
         <v>ประธานอยู่ในวาระที่สองของเขา</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="613">
@@ -8981,7 +8981,7 @@
         <v>เจเน็ตเป็นลุง.</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -8995,7 +8995,7 @@
         <v>ผู้ว่าการรัฐอาเบียยังเป็นประธานอีกด้วย</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="615">
@@ -9009,7 +9009,7 @@
         <v>วอลเตอร์ เมอร์เรย์กล่าวว่ามันเป็นการโจมตีที่โง่เขลา</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="616">
@@ -9023,7 +9023,7 @@
         <v>ประกันภัยทางทะเลแบบไม่จำกัดไม่สามารถใช้ได้กับบุคคลทั่วไป แต่จะมีให้สำหรับเรือพาณิชย์เท่านั้น</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9037,7 +9037,7 @@
         <v>คอนสแตนซ์ไม่ได้แสดงความสนใจในบทสนทนาหรือเนื้อหาในหัวข้อที่พูดคุยกัน</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="618">
@@ -9051,7 +9051,7 @@
         <v>ผู้ที่มีอาการลำไส้แปรปรวนควรดื่มน้ำเท่านั้น</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="619">
@@ -9065,7 +9065,7 @@
         <v>New Day เป็นหนังสือที่เขียนโดยนักเขียนชาวจาเมกา V. S. Reid ในปี 1949 ซึ่งมีอายุมากกว่า 46 ปี</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="620">
@@ -9079,7 +9079,7 @@
         <v>การลงคะแนนเสียงสำหรับสนธิสัญญาอยู่ระหว่างอายุ 25 ถึง 30 ปี</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="621">
@@ -9093,7 +9093,7 @@
         <v>อัลบั้มเริ่มต้นด้วย D</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9107,7 +9107,7 @@
         <v>เอ็ด อีแกน ลงเล่นในรายชื่อผู้เล่นที่ใช้งานอยู่</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="623">
@@ -9121,7 +9121,7 @@
         <v>การชกของ คาเนโล อัลวาเรซ กับ ฮูลิโอ เซซาร์ ชาเวซ จูเนียร์ เกิดขึ้นหลังปี 2016</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9135,7 +9135,7 @@
         <v>ผลิตภัณฑ์ดูแลเส้นผมไม่ถูกเลย</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9149,7 +9149,7 @@
         <v>เพียร์ซเสียชีวิตด้วยสาเหตุธรรมชาติ</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9163,7 +9163,7 @@
         <v>มะเร็งผิวหนังเกี่ยวข้องกับชั้นโอโซน</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="627">
@@ -9177,7 +9177,7 @@
         <v>การติดเชื้อจากฟิลเลอร์ผิวหนังอาจมีอาการอักเสบร่วมด้วย</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="628">
@@ -9191,7 +9191,7 @@
         <v>Big Data เป็นโครงการที่สร้างขึ้นโดย Joywave.</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9205,7 +9205,7 @@
         <v>ในการรักษาอาการปวดกล้ามเนื้อและกระดูกด้วยการผ่าตัด ควรเริ่มจากการพักกล้ามเนื้อก่อน</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="630">
@@ -9233,7 +9233,7 @@
         <v>การผ่าตัดทำโดยศัลยแพทย์</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="632">
@@ -9247,7 +9247,7 @@
         <v>คนส่วนใหญ่ยังไม่เคยได้ยินเพลง Oh My.</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="633">
@@ -9275,7 +9275,7 @@
         <v>เทศบาลและคอมูนา หมายถึงสิ่งเดียวกัน</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="635">
@@ -9289,7 +9289,7 @@
         <v>เคท มอสส์ ได้เปิดตัวผลิตภัณฑ์ดูแลเส้นผมของตัวเองแล้ว</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="636">
@@ -9303,7 +9303,7 @@
         <v>ซีรีส์นี้เกี่ยวกับนักดนตรีแจ๊สที่เกษียณอายุชื่อแจ็คกี้ อีแวนส์</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="637">
@@ -9317,7 +9317,7 @@
         <v>วิลเลียม โธมัส แฮร์ริส เป็นนักขว้างชาวแคนาดาที่ตีลูกด้วยมือซ้ายให้กับดูเกย์วิลล์</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="638">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -9331,7 +9331,7 @@
         <v>ควรเพิ่มน้ำตาลเม็ดลงในเค้ก</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="639">
@@ -9345,7 +9345,7 @@
         <v>บลูริจพาร์คเวย์ตั้งอยู่ในรัฐนอร์ทแคโรไลนาและเวอร์จิเนีย</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9359,7 +9359,7 @@
         <v>บ้านงานศพเกนท์เป็นผู้รับผิดชอบต่อการเสียชีวิตของจอห์น</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="641">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -9373,7 +9373,7 @@
         <v>การนัดหยุดงานจะทำให้การจัดส่งล่าช้า</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="642">
@@ -9387,7 +9387,7 @@
         <v>คณะอนุกรรมการจะเดินทาง 4 ครั้งในฤดูใบไม้ผลิปี 1999</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="643">
@@ -9401,7 +9401,7 @@
         <v>คูณตัวส่วน</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="644">
@@ -9415,7 +9415,7 @@
         <v>มีคนจะทำเรื่องราวเกี่ยวกับชีวิตของโดนัลด์ ริคเคิลส์</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9429,7 +9429,7 @@
         <v>อเดลฟียาไม่ใช่ผู้ให้บริการเคเบิลที่ใหญ่เป็นอันดับเก้าของสหรัฐอเมริกาที่มีผู้ใช้บริการเกือบ 5 ล้านราย</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9443,7 +9443,7 @@
         <v>บวกเศษส่วน.</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9457,7 +9457,7 @@
         <v>อิลเซ่ ฟอน กลัทซ์ เป็นนักเคลื่อนไหวในชีวิตจริง</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="648">
@@ -9471,7 +9471,7 @@
         <v>คำตัดสินของแมคกิลลิสทำให้ชื่อเสียงของพวกเขาเสียหาย</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="649">
@@ -9485,7 +9485,7 @@
         <v>คุณควรใช้ผักกาดหอมโรเมนสำหรับการตุ๋น</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="650">
@@ -9499,7 +9499,7 @@
         <v>ดานีได้ช่วยให้คนอื่นเลือกทางที่แตกต่างโดยการเป็นอาสาสมัครที่สายด่วนป้องกันการฆ่าตัวตาย</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="651">
@@ -9513,7 +9513,7 @@
         <v>นักฟุตบอลระดับวิทยาลัยที่เป็นดาวเด่นจะลงเล่นในเกม East-West Shrine Game.</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">
@@ -9527,7 +9527,7 @@
         <v>โธมัส ไรอัน อายุ 52 ปีในปี 2008</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9541,7 +9541,7 @@
         <v>ดานีรู้ว่ามันอาจจะยากแค่ไหน</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="654">
@@ -9555,7 +9555,7 @@
         <v>เจ้าหน้าที่ไม่ได้สรุปว่ามันเป็นการฆาตกรรม</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="655">
@@ -9569,7 +9569,7 @@
         <v>เฮนรีเสียชีวิต 7 ปีหลังจากประดิษฐ์เครื่องจักร.</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9583,7 +9583,7 @@
         <v>เซลม่า ไดมอนด์ เสียชีวิตเมื่ออายุ 60 ปี</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9597,7 +9597,7 @@
         <v>จังหวัดบ้านเกิดของฉันคือซัสควอช</v>
       </c>
       <c r="D657" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="658">
@@ -9611,7 +9611,7 @@
         <v>รัสเซียฟังอเมริกา</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="659">
@@ -9625,7 +9625,7 @@
         <v>สตีเวน ชีแลนเดอร์ ทำงานให้กับคณะกรรมการความปลอดภัยการขนส่งแห่งชาติ</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9639,7 +9639,7 @@
         <v>เกมออลสตาร์จะจัดขึ้นหลังจากฤดูกาลหลังของฟุตบอลวิทยาลัย</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="661">
@@ -9653,7 +9653,7 @@
         <v>ระบบการศึกษามีข้อบกพร่องอย่างมากและไม่มีเด็กคนใดควรถูกทิ้งไว้ข้างหลัง</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="662">
@@ -9667,7 +9667,7 @@
         <v>เบบี้บูมเมอร์คือผู้ที่ต้องรับผิดชอบต่อราคาบ้านที่พุ่งสูงขึ้นอย่างรวดเร็ว.</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="663">
@@ -9681,7 +9681,7 @@
         <v>แฮงค์เพิ่งทำฟันเติมเมื่อสองวันที่แล้ว</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="664">
@@ -9695,7 +9695,7 @@
         <v>ทีมแทมปาเลือกเอริคสันในรอบที่ 4 ของกระบวนการคัดเลือกในปี 1991</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="665">
@@ -9709,7 +9709,7 @@
         <v>วิทตา ลูกชายของเวคตาชอบฟังพิณ.</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9723,7 +9723,7 @@
         <v>การแตกของท่อประปาสามารถหลีกเลี่ยงได้</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9737,7 +9737,7 @@
         <v>เพื่อนทั้งห้าคนเป็นผู้หญิงทั้งหมด。</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="668">
@@ -9751,7 +9751,7 @@
         <v>โคตา รามากฤษณะ การันธ์ เกิดหลังเดือนเมษายน</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9765,7 +9765,7 @@
         <v>เพื่อนร่วมงานของฉันยังกล่าวว่าเราสามารถรับบางการเปลี่ยนแปลงที่เสนอซึ่งอยู่ในเกณฑ์ดีได้ด้วย</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="670">
@@ -9779,7 +9779,7 @@
         <v>ทางหลวงบลูริจได้ถูกขายให้กับเอกชนแล้ว</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="671">
@@ -9793,7 +9793,7 @@
         <v>ผู้พูดรู้สีของดวงตาของซาร่า</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="672">
@@ -9807,7 +9807,7 @@
         <v>บุคคลเอกชนสนใจที่จะซื้อที่ดินจากมูลนิธิสวนสาธารณะแห่งชาติ</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9821,7 +9821,7 @@
         <v>แมนสันจะไม่ลงเล่นเกมที่ 74</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9835,7 +9835,7 @@
         <v>ABC ออกอากาศ Lost เป็นเวลาอย่างน้อย 6 ฤดูกาล</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">
@@ -9849,7 +9849,7 @@
         <v>อาหารกระตุ้นเป็นสิ่งสำคัญที่ต้องตระหนักและหลีกเลี่ยงสำหรับทั้ง IBS และ GERD เนื่องจากเป็นสภาวะเดียวกัน</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="676">
@@ -9863,7 +9863,7 @@
         <v>บทบาทภาพยนตร์เรื่องแรกของไอร่า ไฮเดน คือในปี 1987.</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9877,7 +9877,7 @@
         <v>นายหน้าในฟลอริด้าไม่สามารถกระทำความผิด แต่สามารถทำงานได้ไม่เต็มที่เมื่อเป็นตัวแทนของลูกค้า</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="678">
@@ -9891,7 +9891,7 @@
         <v>คณะกรรมการที่ปรึกษาทางวิทยาศาสตร์กำลังถูกตรวจสอบบัญชี</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="679">
@@ -9905,7 +9905,7 @@
         <v>หนอนติดเชื้อจากอุจจาระของสุนัข</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="680">
@@ -9919,7 +9919,7 @@
         <v>ราหุล คานธี ชอบนายกรัฐมนตรีนเรนทรา โมดีมากจริงๆ</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9933,7 +9933,7 @@
         <v>บ้านคูเปอร์–ฟรอสต์–ออสตินมีการจัดทัวร์ส่วนตัวในต้นเดือนพฤษภาคม</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="682">
@@ -9947,7 +9947,7 @@
         <v>เธอมาถึงในช่วงสายของเช้า</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="683">
@@ -9961,7 +9961,7 @@
         <v>Axis of Perdition เป็นกลุ่มเพลงป๊อปเกาหลี</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9975,7 +9975,7 @@
         <v>อาร์ชบิชอปควรได้รับการปฏิบัติเหมือนกับสมาชิกคนอื่น ๆ ของคริสตจักร</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -9989,7 +9989,7 @@
         <v>ราแตตูยสามารถเล่นในรถได้</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="686">
@@ -10003,7 +10003,7 @@
         <v>พวกเขากลัวเมื่อกลับมาว่าลูกๆ ทุกคนจะป่วย</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10017,7 +10017,7 @@
         <v>บทกวีต้องมีสัมผัส</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10031,7 +10031,7 @@
         <v>อีธานสามารถปลูกสมุนไพรในสวนเดียวกันได้</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10045,7 +10045,7 @@
         <v>ประกาศนี้เขียนโดยสำนักข่าวเอพี</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10059,7 +10059,7 @@
         <v>ออร์สัน เวลส์ เป็นผู้ผลิต</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10073,7 +10073,7 @@
         <v>โจอี้ เกรซเฟฟฟา เป็นวิศวกรคอมพิวเตอร์。</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="692">
@@ -10087,7 +10087,7 @@
         <v>Radiohead มีอัลบั้มที่ปล่อยออกมาแล้วสามอัลบั้ม</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10101,7 +10101,7 @@
         <v>เวนอมมักจะเชื่อมโยงกับสไปเดอร์แมน</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10115,7 +10115,7 @@
         <v>มารีลิน เบิร์นส์ เป็นนักฟันดาบ</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="695">
@@ -10129,7 +10129,7 @@
         <v>จิม เฮนสัน เป็นนักร้อง</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="696">
@@ -10143,7 +10143,7 @@
         <v>การัน โจฮาร์ เป็นประธาน.</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="697">
@@ -10157,7 +10157,7 @@
         <v>ออร์สัน เวลส์ เป็นนักแสดงละคร</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10171,7 +10171,7 @@
         <v>คลินต์ อีสต์วูด แสดงดนตรี</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="699">
@@ -10185,7 +10185,7 @@
         <v>ควีนวิกตอเรียเป็นราชินีของประเทศหนึ่ง</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10199,7 +10199,7 @@
         <v>Warm Leatherette เป็นผลงานของผู้หญิงคนหนึ่ง</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10213,7 +10213,7 @@
         <v>X-Men: Days of Future Past ออกฉายหลังปี 2010</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">
@@ -10227,7 +10227,7 @@
         <v>จอร์แดน ไนท์ เป็นนักแสดงภาพยนตร์</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="703">
@@ -10241,7 +10241,7 @@
         <v>มินนิโซตาอยู่ในฝรั่งเศส</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10255,7 +10255,7 @@
         <v>โรคฮันติงตันเป็นความผิดปกติที่อาจถ่ายทอดทางพันธุกรรมได้</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10269,7 +10269,7 @@
         <v>ซู ซิลเวสเตอร์ ถูกแสดงโดยนักแสดงชายเท่านั้น</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10283,7 +10283,7 @@
         <v>โจน ครอว์ฟอร์ด เริ่มต้นอาชีพของเธอในฐานะนักแสดงหญิง</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10297,7 +10297,7 @@
         <v>ลีโอนาร์โด ดา วินชี กำลังออกเดทกับหนึ่งในจิตรกรที่ยิ่งใหญ่ที่สุดตลอดกาล</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="708">
@@ -10311,7 +10311,7 @@
         <v>เฟร็ด ทรัมป์ อายุสิบสามปีในเดือนธันวาคม ปี 1918</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="709">
@@ -10339,7 +10339,7 @@
         <v>X-Men (ภาพยนตร์) มีนักแสดงที่เป็นนักแสดงและนักร้องชาวอเมริกันชื่อว่า เอียน แม็คเคลเลน</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10353,7 +10353,7 @@
         <v>ช่วงเวลาที่ประสบความสำเร็จสูงสุดของสโมสรฟุตบอลนิวคาสเซิลยูไนเต็ดสิ้นสุดลงในเดือนพฤษภาคมปี 1910</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10367,7 +10367,7 @@
         <v>เลโอนาร์โด ดา วินชี ศึกษาเกี่ยวกับกายวิภาคศาสตร์</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10381,7 +10381,7 @@
         <v>โจอี้ เกรเซฟฟา มาจากสาธารณรัฐที่ประกอบด้วยสหพันธ์ ซึ่งมีพื้นฐานมาจากรัฐธรรมนูญ</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="714">
@@ -10395,7 +10395,7 @@
         <v>Glee เป็นหนังสยองขวัญตลก.</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">
@@ -10409,7 +10409,7 @@
         <v>ผู้กำกับตอนนำร่องของ The Blacklist เกิดในช่วงการบริหารงานของเคนเนดี</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="716">
@@ -10423,7 +10423,7 @@
         <v>โรมัน เรนส์ เป็นชาวสวน。</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10437,7 +10437,7 @@
         <v>เท็ด เคนเนดี เป็นวุฒิสมาชิกของสหรัฐอเมริกา</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="718">
@@ -10451,7 +10451,7 @@
         <v>ซูเปอร์เนเชอรัลเป็นซีรีส์หนึ่ง</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10465,7 +10465,7 @@
         <v>หมอคนที่สิบสองอยู่ในรายการโทรทัศน์ของอังกฤษ。</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10479,7 +10479,7 @@
         <v>แจ็ค พาร์ เสียชีวิตในวันที่ในศตวรรษที่ 21</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10493,7 +10493,7 @@
         <v>ฉากถ่ายทำของ Planet of the Apes ในและรอบๆ รูปปั้นเสรีภาพ</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="722">
@@ -10507,7 +10507,7 @@
         <v>One More Light ถูกปล่อยออกมาผ่าน CBS.</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10521,7 +10521,7 @@
         <v>Wentworth เป็นตอนเดียวในโทรทัศน์</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10535,7 +10535,7 @@
         <v>โรเบิร์ต บราวนิง เป็นกวีที่สำคัญในยุคจักรวรรดิรัสเซีย</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="725">
@@ -10549,7 +10549,7 @@
         <v>ออเดรย์ ฮอร์น ถูกแนะนำใน ทวินพีคส์: เดอะ รีเทิร์น</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="726">
@@ -10563,7 +10563,7 @@
         <v>ตัวละครหลักของ Avatar: The Last Airbender คือ อ้าง</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10577,7 +10577,7 @@
         <v>อีแวน โกลด์เบิร์ก เป็นผู้กำกับชาวเยอรมัน。</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10591,7 +10591,7 @@
         <v>ซินดี้ แมคเคน เป็นชาวอเมริกัน。</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10605,7 +10605,7 @@
         <v>Coldplay เป็นวงดนตรีจากอังกฤษ</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10619,7 +10619,7 @@
         <v>ทิม อัลเลน แสดงในรายการโทรทัศน์อเมริกันรายการหนึ่ง</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10633,7 +10633,7 @@
         <v>โทนี่ แบลร์ เป็นผู้นำพรรคอนุรักษ์นิยม</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="732">
@@ -10647,7 +10647,7 @@
         <v>เฮเธอร์ วัตสัน เป็นแชมป์.</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10661,7 +10661,7 @@
         <v>จอห์น แมคเคน เป็นที่รู้จักจากการทำงานเพื่อฟื้นฟูความสัมพันธ์ทางการทูตกับรัสเซีย</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="734">
@@ -10675,7 +10675,7 @@
         <v>วลาดิมีร์ ปูติน เป็นประธานของรัฐบาล</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="735">
@@ -10689,7 +10689,7 @@
         <v>The Guest มีนักแสดงภาพยนตร์ชาวอเมริกันเป็นดาวเด่น</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="736">
@@ -10703,7 +10703,7 @@
         <v>ทิโมธี โอลิแฟนต์ เป็นสัตว์.</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10717,7 +10717,7 @@
         <v>ชื่อกลางของแฟรงค์ ซินาตรา คือ แซม.</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10731,7 +10731,7 @@
         <v>เซจ สตัลโลน เป็นพ่อ.</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="739">
@@ -10745,7 +10745,7 @@
         <v>เหมา เจ๋อตง เป็นคนรัสเซีย</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10759,7 +10759,7 @@
         <v>ลี ฮาร์วีย์ ออสวัลด์ สังหารประธานาธิบดีคนที่ 35 ของสหรัฐอเมริกา</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="741">
@@ -10787,7 +10787,7 @@
         <v>Glee เป็นภาพยนตร์</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10801,7 +10801,7 @@
         <v>โทนี่ แบลร์ เป็นนักแสดง</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="744">
@@ -10815,7 +10815,7 @@
         <v>แอนเดอร์สัน คูเปอร์ เป็นบุคคลหนึ่ง</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="745">
@@ -10829,7 +10829,7 @@
         <v>เฮเธอร์ วัตสัน เป็นแม่。</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10843,7 +10843,7 @@
         <v>จอร์จ คลูนีย์ เป็นนักการ์ตูน</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="747">
@@ -10857,7 +10857,7 @@
         <v>อวริล ลาวีน เป็นนักดนตรี。</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="748">
@@ -10871,7 +10871,7 @@
         <v>เอมิลิโอ เอสเตเวซเกิดในโรงนาหรือที่พักของสัตว์.</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">
@@ -10885,7 +10885,7 @@
         <v>มิแรนด้า เคอร์ เป็นนางแบบของวิคตอเรีย's ซีเคร็ตจากแคนาดา</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -10899,7 +10899,7 @@
         <v>ฮัลค์เป็นการสร้างสรรค์</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10913,7 +10913,7 @@
         <v>โมนิก้า เซเลส เล่นเทนนิส</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -10927,7 +10927,7 @@
         <v>เพนนี ดเรดฟูล เริ่มต้นในศตวรรษที่ 21.</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10941,7 +10941,7 @@
         <v>ดั๊ก โจนส์ ทำงานในธุรกิจโรงภาพยนตร์</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10955,7 +10955,7 @@
         <v>Warm Leatherette เป็นผลงานของนักร้องที่เกิดในจาเมกา และถูกปล่อยออกมาในปี 1980.</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="755">
@@ -10969,7 +10969,7 @@
         <v>Glee เป็นซีรีส์โทรทัศน์。</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -10983,7 +10983,7 @@
         <v>เอสเทลล่า วอร์เรน เป็นราศีเมถุน</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="757">
@@ -10997,7 +10997,7 @@
         <v>Desperate Housewives เป็นซีรีส์โทรทัศน์</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11011,7 +11011,7 @@
         <v>อีมินเอ็มเป็นราศีเมถุน</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="759">
@@ -11025,7 +11025,7 @@
         <v>โธมัส เดอซิโมเน่ หายตัวไปในเฮติ。</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11039,7 +11039,7 @@
         <v>วิลเลียม อาร์. ทอลเบิร์ต จูเนียร์ ถูกฆ่า.</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11053,7 +11053,7 @@
         <v>มิแรนด้า คอสโกรฟ เป็นนักแข่งรถยนต์</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="762">
@@ -11067,7 +11067,7 @@
         <v>วิโนนา จัดด์มีส่วนร่วมในการออกกำลังกายทางน้ำ</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="763">
@@ -11081,7 +11081,7 @@
         <v>Tré Cool เป็นมือกลองให้กับวง Green Day.</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11095,7 +11095,7 @@
         <v>เดวิด ชวิมเมอร์ เสร็จสิ้นการแสดงในเรื่องเพื่อนเมื่อวันที่ 8 ตุลาคม 2004</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="765">
@@ -11109,7 +11109,7 @@
         <v>เจนเนดี้ โกลอฟกิน เป็นนักฟันดาบ。</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11123,7 +11123,7 @@
         <v>เดนนิส ฮอปเปอร์ เป็นบุคคลหนึ่ง</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11137,7 +11137,7 @@
         <v>เซจ สตัลโลนเกิดในประเทศจีน</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="768">
@@ -11151,7 +11151,7 @@
         <v>ลอเรนซ์ โอลิเวียร์ อยู่ในอเมริกา。</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="769">
@@ -11165,7 +11165,7 @@
         <v>เจนเนดี้ โกลอฟกิน เป็นปลาหมึก.</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="770">
@@ -11179,7 +11179,7 @@
         <v>โนวัค โจโควิช เป็นนักกีฬา。</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11193,7 +11193,7 @@
         <v>เกรซ โจนส์ แสดงในภาพยนตร์ A View to a Kill.</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="772">
@@ -11207,7 +11207,7 @@
         <v>เดนนิส ฮอปเปอร์ เป็นชาวออสเตรเลีย</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11221,7 +11221,7 @@
         <v>ความรักและมิตรภาพเป็นโฆษณา</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="774">
@@ -11235,7 +11235,7 @@
         <v>สเปนเป็นประเทศหนึ่ง</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11249,7 +11249,7 @@
         <v>โทนี่ โกลด์วิน เป็นโปรดิวเซอร์ชาวเยอรมัน</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11263,7 +11263,7 @@
         <v>โรมัน เรนส์ เป็นนักเบสบอลมืออาชีพ</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="777">
@@ -11277,7 +11277,7 @@
         <v>วลาดิมีร์ ปูติน ดำรงตำแหน่งประธานาธิบดีตั้งแต่ปี 1997 ถึง 2008.</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11291,7 +11291,7 @@
         <v>ซีแอตเทิลเป็นเมืองที่ใหญ่ที่สุดในรัฐวอชิงตัน</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11305,7 +11305,7 @@
         <v>แอนดี้ คอฟแมน เป็นคนดุร้าย</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="780">
@@ -11319,7 +11319,7 @@
         <v>แดนนี่ แครี่ ไม่มีชื่อกลาง</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11333,7 +11333,7 @@
         <v>ไทเกอร์ วูดส์ ชนะการแข่งขันพาล์มสปริงส์ อินวิเตชันแนล</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="782">
@@ -11347,7 +11347,7 @@
         <v>โรงเรียน BRIT ก่อตั้งขึ้นในปี 1922</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="783">
@@ -11361,7 +11361,7 @@
         <v>จอห์น เวย์น เกซี่ จูเนียร์ มีส่วนเกี่ยวข้องกับอาชญากรรม</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="784">
@@ -11375,7 +11375,7 @@
         <v>ผู้บัญชาการของชูทซ์สตาฟเฟลคือไฮนริช ฮิมmler</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="785">
@@ -11389,7 +11389,7 @@
         <v>เฟอร์กี้มีสุนัขชื่อว่า "เอาท์สโปเคน"</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="786">
@@ -11403,7 +11403,7 @@
         <v>โจอี้ เกรเซฟฟา ทำงานร่วมกับเว็บไซต์ที่ตั้งอยู่ในซานเบอร์โน รัฐแคลิฟอร์เนีย</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="787">
@@ -11417,7 +11417,7 @@
         <v>The Leftovers นำแสดงโดยนักแสดงคนหนึ่ง。</v>
       </c>
       <c r="D787" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="788">
@@ -11431,7 +11431,7 @@
         <v>คาร์เมโล แอนโธนี เล่นให้กับทีมฟุตบอลทีมหนึ่ง</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11445,7 +11445,7 @@
         <v>ทอม เฟลตัน เป็นคนราศีเมถุน</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="790">
@@ -11459,7 +11459,7 @@
         <v>ฤดูกาลสุดท้ายของ Glee ถูกสั่งให้ผลิตเมื่อวันที่ 19 เมษายน 2013</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="791">
@@ -11473,7 +11473,7 @@
         <v>Glee เป็นภาพยนตร์.</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11487,7 +11487,7 @@
         <v>กฎหมายทั้งหมดเกี่ยวกับสิทธิของประชาชนในการดูแลเด็กกำหนดให้พ่อแม่ต้องแต่งงานกัน</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="793">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -11529,7 +11529,7 @@
         <v>ฟิชยอมรับว่าเขาอาจจะผิด</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="796">
@@ -11543,7 +11543,7 @@
         <v>ไม่ใช่เพื่อเล่นบททนายของปีศาจ แต่มัสโซลินีเป็นแรงบันดาลใจหลักสำหรับทูดจ์มัน เนื่องจากเขาเป็นนักการเมืองหนุ่ม</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11557,7 +11557,7 @@
         <v>ชาวคริสต์แบบฟอลเวลล์เชื่อว่าพระคริสต์เป็นชาวยิว</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="798">
@@ -11571,7 +11571,7 @@
         <v>พวกเขาบอกว่าข้อมูลของเขาไม่คุ้มค่าที่จะพิจารณา</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="799">
@@ -11585,7 +11585,7 @@
         <v>ริชชี่และหมอปฏิเสธว่าได้กระทำการผิดกฎหมายใด ๆ ต่อวินเน็ตในระหว่างการพิจารณาคดี</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11599,7 +11599,7 @@
         <v>ผู้อ่านอ่านหนังสือจนจบ.</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11613,7 +11613,7 @@
         <v>ผู้กระทำผิดที่ถูกตัดสินว่ามีความผิดหลายคนจะได้รับอนุญาตให้มีปฏิสัมพันธ์อย่างใกล้ชิดกับประธานาธิบดีที่ไม่มีการรักษาความปลอดภัยและกลุ่มผลประโยชน์พิเศษ</v>
       </c>
       <c r="D801" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="802">
@@ -11627,7 +11627,7 @@
         <v>นิตยสารนิวเยอร์เกอร์หยุดคอลัมน์จดหมายจากยุโรป</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="803">
@@ -11641,7 +11641,7 @@
         <v>ชื่อของฉันอาจจะเป็น ปิแอร์ เลอคลัค.</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11655,7 +11655,7 @@
         <v>เครื่องปิงปองสามารถใช้สำหรับการพนันได้</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11669,7 +11669,7 @@
         <v>อาชญากรรมที่เกี่ยวข้องกับระเบิดจะถูกดำเนินคดีเหมือนกับอาชญากรรมอื่น ๆ</v>
       </c>
       <c r="D805" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="806">
@@ -11683,7 +11683,7 @@
         <v>นิวแฮมป์เชียร์และไอโอวามักเปลี่ยนความคิดของคนได้</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="807">
@@ -11697,7 +11697,7 @@
         <v>ตอนนี้มีอัจฉริยะคนหนึ่งที่สามารถช่วยเราในเรื่องนี้ได้</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="808">
@@ -11711,7 +11711,7 @@
         <v>ไม่มีข้อสงสัยเลยว่ามีชีวิตอยู่บนดาวเคราะห์อื่น ๆ</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="809">
@@ -11725,7 +11725,7 @@
         <v>ดอร์ธี ฮีลีรู้จักมอร์ริส</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11739,7 +11739,7 @@
         <v>มันเป็นเรื่องผิดที่จะแสดงความเห็นต่อจุดยืนดังกล่าว.</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="811">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -11753,7 +11753,7 @@
         <v>กลุ่มล็อบบี้และผู้บริจาคขนาดใหญ่มีการเข้าถึงวุฒิสมาชิกได้ง่ายกว่า</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="812">
@@ -11767,7 +11767,7 @@
         <v>ในปี 1992 มีประเทศมากกว่านั้นที่สามารถเข้าร่วมได้</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="813">
@@ -11781,7 +11781,7 @@
         <v>มีคนอาจจะแอบส่งเทปของรายการ This Week ในสัปดาห์นี้ให้เคนเนธ สตาร์</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11795,7 +11795,7 @@
         <v>รีบ็อคตั้งชื่อให้เธออย่างมีการยั่วยุอย่างตั้งใจ</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="815">
@@ -11809,7 +11809,7 @@
         <v>เด็กที่ถูกอุปการะกลั่นแกล้งทุกคนในสนามเด็กเล่น</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="816">
@@ -11823,7 +11823,7 @@
         <v>การปิดระบบที่ร้ายแรงของโครงข่ายไฟฟ้า ธนาคาร คอมพิวเตอร์ควบคุมการจราจรทางอากาศ อุปกรณ์ทางการแพทย์ และอื่นๆ จะถูกหลีกเลี่ยงไปอีกหลายปีข้างหน้า</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="817">
@@ -11837,7 +11837,7 @@
         <v>สมมติฐานที่แลงเชื่อว่ามีการยืนยันอย่างมากนั้นเป็นเท็จ</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="818">
@@ -11851,7 +11851,7 @@
         <v>วันนี้ นักสืบคนหนึ่งอ้างว่าตามที่ผู้ตายทราบ เมื่อถูกสัมภาษณ์โดยนักเขียนจดหมาย ว่าเจ้าหน้าที่ของสหรัฐอาจอนุมัติการลอบสังหารของเหรียญ</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11865,7 +11865,7 @@
         <v>พรรครีพับลิกันหลีกเลี่ยงการวิจารณ์ประธานาธิบดีเพราะเขามาจากพรรคของพวกเขา</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="820">
@@ -11879,7 +11879,7 @@
         <v>คุณสามารถเห็นความเจ็บปวดที่ปรากฏอยู่บนใบหน้าของเขาและเขาดูทุกข์ใจมาก</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="821">
@@ -11893,7 +11893,7 @@
         <v>เธอมีความลับจากพวกเขา</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="822">
@@ -11907,7 +11907,7 @@
         <v>มันยากที่จะบอกว่าพวกเขาอยู่ในที่ที่ถูกต้องหรือไม่</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="823">
@@ -11935,7 +11935,7 @@
         <v>อัมมานเป็นความล้มเหลวที่มีค่าใช้จ่ายสูง</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="825">
@@ -11949,7 +11949,7 @@
         <v>นายจ้างควรขายไข่ให้กับผู้ถือหุ้น</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="826">
@@ -11963,7 +11963,7 @@
         <v>นักศึกษาในวิทยาลัยไม่ค่อยสนใจเกี่ยวกับโรงงานผลิตเสื้อผ้าที่ใช้แรงงานทาส.</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="827">
@@ -11977,7 +11977,7 @@
         <v>เป็นไปได้ที่สภาคองเกรสจะใช้จ่ายเกินงบประมาณ</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -11991,7 +11991,7 @@
         <v>เจสส์ กุปต้าอาจจะเป็นเกย์</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12005,7 +12005,7 @@
         <v>เฮนรีชอบทำให้ผู้หญิงร้องเสียงดังด้วยความสุขโดยการให้ของที่เธอชอบ</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="830">
@@ -12019,7 +12019,7 @@
         <v>ชาวมอร์มอนปฏิบัติเกี่ยวกับการมีภรรยาหลายคน</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12033,7 +12033,7 @@
         <v>นักลงทุนควรถอนเงินออกจากไมโครซอฟท์เนื่องจากข้อมูลเชิงลบ</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="832">
@@ -12047,7 +12047,7 @@
         <v>พวกเขาคิดว่าเขาควรใช้เวลาออนไลน์มากกว่านี้</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12061,7 +12061,7 @@
         <v>การเกิดอุบัติเหตุรถยนต์ที่มีผลร้ายแรงอาจเป็นสาเหตุที่ทำให้โจไม่ได้รับการเลือกตั้งในสภาคองเกรส</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="834">
@@ -12075,7 +12075,7 @@
         <v>คนนี้ไม่ได้คิดเกี่ยวกับการตัดสินใจของพวกเขาเลย</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="835">
@@ -12089,7 +12089,7 @@
         <v>ผู้เขียนได้ชมเรื่อง "เวนิสว่าด้วยการค้า"</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="836">
@@ -12103,7 +12103,7 @@
         <v>ผลิตภัณฑ์ควรจะวางขายในร้านค้าภายในเดือนฤดูร้อนคือ มิถุนายน, กรกฎาคม และสิงหาคม</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="837">
@@ -12117,7 +12117,7 @@
         <v>สังคมอาจล่มสลายในวันหนึ่งวันใด</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="838">
@@ -12131,7 +12131,7 @@
         <v>มีความเป็นไปได้สูงที่ผู้เขียนจะเป็นโรคที่ถึงตายได้ก่อนที่จะถึงแก่ชีวิต</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="839">
@@ -12145,7 +12145,7 @@
         <v>เรามีการเข้าถึงเนื้อหาที่มีลิขสิทธิ์</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="840">
@@ -12159,7 +12159,7 @@
         <v>พวกเขาอาจจะเคยเป็นทาสทั้งหมด</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="841">
@@ -12173,7 +12173,7 @@
         <v>สหรัฐอเมริกาและรัสเซียกำลังอยู่ในสงครามร่วมกัน</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12187,7 +12187,7 @@
         <v>การเข้าร่วม NATO ไม่มีการป้องกันเพิ่มเติมมากนัก.</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -12201,7 +12201,7 @@
         <v>ตัวเลือกหุ้นมีความถูกต้องน้อยมากสำหรับผู้บริโภค</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="844">
@@ -12215,7 +12215,7 @@
         <v>โปรแกรมจะขยายเพื่อรวมตำรวจด้วย</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="845">
@@ -12229,7 +12229,7 @@
         <v>เขาไม่ตัดสินคนที่มีความเชื่อทางศาสนาที่แตกต่างจากเขาอย่างรุนแรงเกินไป</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="846">
@@ -12243,7 +12243,7 @@
         <v>พวกเขามีทางเลือกในการออกจากสถานการณ์ที่ยากลำบากนี้</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12257,7 +12257,7 @@
         <v>เธอได้เปลี่ยนไปแล้ว</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12271,7 +12271,7 @@
         <v>เงินกู้ที่มีจำนวนมากจะทำให้เกิดความแตกต่าง</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="849">
@@ -12285,7 +12285,7 @@
         <v>แอปเปิลได้อนุญาตให้บริษัทบางแห่ง เช่น ไอบีเอ็มและเอชพี ผลิตฮาร์ดแวร์ที่ใช้ระบบปฏิบัติการของตน</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="850">
@@ -12299,7 +12299,7 @@
         <v>อาจเป็นไปได้ที่จะขอให้ผู้คนออกไปโดยไม่มีปัญหาครอบครัว</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="851">
@@ -12313,7 +12313,7 @@
         <v>สติปัญญามีคำอธิบายและความเป็นไปได้มากมาย รวมถึงความแปลกประหลาดด้วย</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="852">
@@ -12327,7 +12327,7 @@
         <v>หน่วยคอมมานโดอิรักอาจมีความยากลำบากในการหลบหนีจากรายงานของสื่อมวลชน</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="853">
@@ -12341,7 +12341,7 @@
         <v>พนักงานระดับสูงของบริษัทรองเท้ากำลังไม่ได้รับการตรวจสอบ</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="854">
@@ -12355,7 +12355,7 @@
         <v>ทริปป์เคยขี่มังกรจริง ๆ แต่สื่อกลับมองข้ามเรื่องนั้นและมุ่งเน้นไปที่คำให้การของเธอในศาลแทน</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="855">
@@ -12369,7 +12369,7 @@
         <v>ไม่มีใครแน่ใจว่าเบิร์กแมนตัดสินใจว่าไวแกนด์ไม่สำคัญเมื่อไหร่</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="856">
@@ -12383,7 +12383,7 @@
         <v>หนังสือจบลงด้วยการโต้แย้ง</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="857">
@@ -12397,7 +12397,7 @@
         <v>เป็นสิ่งสำคัญที่ผู้ให้บริการด้านมนุษยธรรมที่ไม่แสวงหาผลกำไรจะต้องนำแนวปฏิบัติและกรอบความคิดจากต่างประเทศมาใช้ในการทำงาน</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12411,7 +12411,7 @@
         <v>ไมล์สะสมจากการบินสามารถแลกเป็นเงินสดได้</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="859">
@@ -12425,7 +12425,7 @@
         <v>เขาน่าจะถูกเทรดอย่างแน่นอน</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="860">
@@ -12439,7 +12439,7 @@
         <v>บริการนวัตกรรมบางประเภทที่เสนอควรได้รับการพิจารณาจาก USPS</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="861">
@@ -12453,7 +12453,7 @@
         <v>ไมโครซอฟท์ได้มีพฤติกรรมที่น่าสงสัยและกำลังถูกสอบสวน</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="862">
@@ -12467,7 +12467,7 @@
         <v>บิล แบรดลีย์ และอัล กอร์ เป็นเพียงสองคนอื่นที่ได้รับผลกระทบจากการโกงการลงคะแนนทางอินเทอร์เน็ต นอกเหนือจากพรรคเดโมแครตในรัฐแอริโซนา</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12481,7 +12481,7 @@
         <v>สต็อกออปชันเป็นความคิดที่ดี</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="864">
@@ -12495,7 +12495,7 @@
         <v>ไม่มีใครแน่ใจว่าบราวูร่าเป็นอะไร แต่แพทย์หวังว่าจะสามารถนำออกได้</v>
       </c>
       <c r="D864" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="865">
@@ -12509,7 +12509,7 @@
         <v>A ดูเหมือนผับในชนบทที่มีลานหินกรวด</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="866">
@@ -12523,7 +12523,7 @@
         <v>สถาบันวิทยาศาสตร์แห่งชาติได้รายงานเกี่ยวกับลำดับความสำคัญของการวิจัยสำหรับ PM.</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12537,7 +12537,7 @@
         <v>ไม่ใช่เรื่องแปลกที่ไกด์ทัวร์จะปีนเข้าไปในที่พักอย่างเป็นทางการของรัฐบาลโปรตุเกส</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="868">
@@ -12551,7 +12551,7 @@
         <v>กรีซสามารถดูดซับเกาะต่าง ๆ ของอิตาลีตอนเหนือและตะวันออกและได้ใช้โอกาสนี้</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="869">
@@ -12565,7 +12565,7 @@
         <v>ข้อจำกัดด้านเวลาอย่างรุนแรงในการเปลี่ยนแปลงปี 2000 ควรจะไม่มีผลกระทบต่อความลับของข้อมูลที่ละเอียดอ่อนอย่างแน่นอน</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="870">
@@ -12579,7 +12579,7 @@
         <v>เขาพูดถึงประธานาธิบดีเฉพาะในที่ส่วนตัวเท่านั้น</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="871">
@@ -12593,7 +12593,7 @@
         <v>คุณคือแฟรงคลินตัวจริง ไม่ว่าฉันจะแต่งตัวอย่างไร</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="872">
@@ -12607,7 +12607,7 @@
         <v>ต้นไม้ดูสวยงามมาก</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="873">
@@ -12621,7 +12621,7 @@
         <v>พรรครีพับลิกันเคยสนใจที่จะให้กิงริชอยู่ต่อไป</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="874">
@@ -12635,7 +12635,7 @@
         <v>ต้องมีใครสักคนที่รู้ว่ามันอยู่ที่ไหน</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="875">
@@ -12649,7 +12649,7 @@
         <v>ฉันคิดว่าพวกเขาส่งจดหมายถึงสามีของฉันเพื่อหาว่าสามีของคุณทำงานที่ TI หรือไม่</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="876">
@@ -12663,7 +12663,7 @@
         <v>ทำได้กี่เสิร์ฟ?</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12677,7 +12677,7 @@
         <v>พวกเขาไม่มีความรู้เกี่ยวกับความรู้สึกด้านแฟชั่น</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="878">
@@ -12691,7 +12691,7 @@
         <v>ดรูว์รู้จักดอนกิโฆเต้</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12705,7 +12705,7 @@
         <v>ผู้สนับสนุนของ NASA มักจะยืนยันเสมอว่ามันเป็นปัญหาด้านการเงิน</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12719,7 +12719,7 @@
         <v>ดรูว์ตกลงรับข้อเสนอสำหรับม้าแล้ว</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="881">
@@ -12733,7 +12733,7 @@
         <v>คุณควรทำเช่นนั้น</v>
       </c>
       <c r="D881" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="882">
@@ -12747,7 +12747,7 @@
         <v>พวกเขาอาจจะเป็นเช่นนั้นได้อย่างดี</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="883">
@@ -12761,7 +12761,7 @@
         <v>มันคุ้มค่าที่จะมีเพิ่มเติมเพราะอาจจะไม่ได้รับการลงคะแนนเสียง</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="884">
@@ -12775,7 +12775,7 @@
         <v>คาดว่าค่าทดลองจะอยู่ที่ประมาณ 100,000 ถึง 300,000 ดอลลาร์ ซึ่งเธอสามารถจ่ายได้อย่างง่ายดาย</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12789,7 +12789,7 @@
         <v>ซานโดโร่ยกจอนขึ้นเพื่อให้เขายืนได้</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="886">
@@ -12803,7 +12803,7 @@
         <v>มีคนสงสัยว่าประวัติการเป็นตัวตลกในละครสัตว์ของเขามีผลต่อการถ่ายภาพของเขาหรือไม่</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12817,7 +12817,7 @@
         <v>การตัดสินใจจะกำหนดว่าสิ่งประมาณเหล่านี้อาจเปลี่ยนแปลงได้หรือไม่</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="888">
@@ -12831,7 +12831,7 @@
         <v>ชนชั้นนำกำหนดเศรษฐกิจของชาติ</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12845,7 +12845,7 @@
         <v>มันน่าสงสัยมากที่เธอทำพินัยกรรมใหม่ในวันที่เธอเสียชีวิต</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12873,7 +12873,7 @@
         <v>บุคคลอาจไม่มีความชอบระหว่างข้อเสนอทั้งสองข้อ</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12887,7 +12887,7 @@
         <v>กฎการปล่อยก๊าซใหม่ถูกเผยแพร่ในเดือนพฤษภาคมปี 1996</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="893">
@@ -12901,7 +12901,7 @@
         <v>มันอาจไม่จบลงด้วยระบอบประชาธิปไตย</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="894">
@@ -12915,7 +12915,7 @@
         <v>ค่ามีขนาดใหญ่และต้องมีข้อผิดพลาดบางอย่าง</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="895">
@@ -12929,7 +12929,7 @@
         <v>คุณต้องตายในการสงครามแน่ ๆ</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12943,7 +12943,7 @@
         <v>ผู้เขียนรู้สึกมีความสุขที่แนวคิดนั้นไม่ได้เกิดขึ้นจริง</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">
@@ -12957,7 +12957,7 @@
         <v>ต้องติดตั้งระบบการรับเข้าที่ทันสมัยเพื่อช่วยเหลือลูกค้าได้มากขึ้น</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="898">
@@ -12971,7 +12971,7 @@
         <v>นโยบายการคลังของรัฐบาลกลางอาจมีผลต่อการออมของชาติในหลายวิธี</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="899">
@@ -12985,7 +12985,7 @@
         <v>พายกล้วยครีมเป็นสิ่งที่ยอดเยี่ยมที่สุดและสามารถนำกลับบ้านได้</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">
@@ -12999,7 +12999,7 @@
         <v>อัลเบิร์ตสามารถได้ยินเสียงเดินอยู่บนชั้นบน</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="901">
@@ -13013,7 +13013,7 @@
         <v>แสงจากเทียนทำให้ชายคนนั้นดูแข็งแรงยิ่งขึ้น.</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -13027,7 +13027,7 @@
         <v>ความตกลงอยู่ภายใต้ข้อบังคับของ NAFTA</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13041,7 +13041,7 @@
         <v>วิธีที่ดีที่สุดในการดำเนินการแคมเปญการตลาดทางอีเมลคือการทำตามใจชอบ สร้างรายชื่อลูกค้า การรบกวนผู้คนเป็นวิธีที่ดีในการสร้างผู้ติดตาม การตลาดทางอีเมลเริ่มต้นขึ้นในปี 1980</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="904">
@@ -13055,7 +13055,7 @@
         <v>ไม่มีสมาชิกจากนิวยอร์ก</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="905">
@@ -13069,7 +13069,7 @@
         <v>ลูกสุนัขจะมีอายุเพิ่มขึ้นอีกหนึ่งปี</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="906">
@@ -13083,7 +13083,7 @@
         <v>ผู้ใช้ YouTube ชื่อ Streetcap1 ได้โพสต์ชุดภาพที่ถ่ายจากยานสำรวจดวงจันทร์ของจีน Chang'e 4</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="907">
@@ -13097,7 +13097,7 @@
         <v>สภาวะของการถูกเบี่ยงเบนความสนใจสามารถรับรู้ได้ผ่านประสาทสัมผัสทางสายตา</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13111,7 +13111,7 @@
         <v>โรงเรียนไรย์ เซนต์ แอนโทนี ไม่อนุญาตให้เด็กชายอายุ 9 ปีเข้าเรียน</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="909">
@@ -13125,7 +13125,7 @@
         <v>ผู้ว่าการได้เสนอการสร้างชาติเป็นสองเท่า</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="910">
@@ -13139,7 +13139,7 @@
         <v>มีผู้เสียชีวิตอย่างน้อยน้อยกว่าสิบคน</v>
       </c>
       <c r="D910" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="911">
@@ -13153,7 +13153,7 @@
         <v>สีของใบไม้ในฤดูใบไม้ร่วงไม่ได้ขึ้นอยู่กับปริมาณฝนตก</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="912">
@@ -13167,7 +13167,7 @@
         <v>จูซุฟ คัลล่า ไม่ใช่ประธานาธิบดีฟิลิปปินส์</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13181,7 +13181,7 @@
         <v>พื้นที่ร่วมใช้พิจารณาการออกแบบเมือง</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="914">
@@ -13195,7 +13195,7 @@
         <v>จากแมดิสันใช้เวลาไม่ถึง 5 ชั่วโมงในการขับรถไปถึง</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="915">
@@ -13209,7 +13209,7 @@
         <v>Hell Blade มีอันดับสูงกว่า Time's End.</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="916">
@@ -13223,7 +13223,7 @@
         <v>หมอเพิ่งจะออกไปเดินเล่นเมื่อเหตุการณ์ทั้งหมดเกิดขึ้น</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="917">
@@ -13237,7 +13237,7 @@
         <v>ชัค ไรท์ เป็นหนึ่งในนักร้องแบ็คกราวด์หลายคนของควiet ไรอท</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="918">
@@ -13251,7 +13251,7 @@
         <v>ห้องโถงกลางไม่สามารถรองรับผู้ชมได้มากกว่า 10,014 คนสำหรับการแข่งขันบาสเกตบอล</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -13265,7 +13265,7 @@
         <v>นักกฎหมายรัฐธรรมนูญบางคนจะถูกสอบสวน</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13279,7 +13279,7 @@
         <v>กระดาษแข็งที่อ่อนแอกว่าดีกว่าที่แข็งแรง</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="921">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -13293,7 +13293,7 @@
         <v>ค่าทางการแพทย์บางค่าใหญ่โต</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13307,7 +13307,7 @@
         <v>เอริคคิดว่าเนลดูดีกว่าในชุดทำงานมากกว่าชุดทางการ</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13321,7 +13321,7 @@
         <v>งานกำลังถูกสูญเสียในอเมริกาใต้การบริหารของประธานาธิบดี</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13335,7 +13335,7 @@
         <v>การเติบโตทางเศรษฐกิจเป็นจุดสนใจที่สำคัญที่สุดสำหรับผู้บัญชาการทหารสูงสุดของแผ่นดินที่มีเสรีภาพและบ้านของผู้กล้า</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="925">
@@ -13349,7 +13349,7 @@
         <v>"ที่ซึ่งมีการจัดเตรียมคำให้การเป็นลายลักษณ์อักษร" เป็นภาษาที่เฉพาะเจาะจงมาก</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="926">
@@ -13363,7 +13363,7 @@
         <v>คุณวีเซิลเป็นตัวละครในนิยาย</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="927">
@@ -13377,7 +13377,7 @@
         <v>ชายเหล่านั้นถูกยิงจากภายในอาคารที่พวกเขากำลังเดินผ่าน</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="928">
@@ -13391,7 +13391,7 @@
         <v>ชายคนนี้ไม่ได้เสียชีวิตในที่เกิดเหตุ</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">

--- a/Annotations/annotations_TH.xlsx
+++ b/Annotations/annotations_TH.xlsx
@@ -13405,7 +13405,7 @@
         <v>รูปแบบการหายใจช้า คือการหายใจเข้าสองครั้งและฝันถึงวันหยุดพักผ่อน</v>
       </c>
       <c r="D929" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="930">
@@ -13419,7 +13419,7 @@
         <v>ประธานาธิบดีเชื่อในการมีความสัมพันธ์ที่แข็งแกร่งกับยุโรป</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="931">
@@ -13433,7 +13433,7 @@
         <v>All for Love ถูกเขียนโดยไม่ถึงสี่คน</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13447,7 +13447,7 @@
         <v>จากแมดิสันใช้เวลาขับรถน้อยกว่า 6 ชั่วโมงถึง.</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="933">
@@ -13461,7 +13461,7 @@
         <v>ไวยากรณ์สะพานไม่เล็กกว่ากฎเกณฑ์ของเกาะ</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="934">
@@ -13475,7 +13475,7 @@
         <v>รายการนี้ไม่เรียกว่า "Jack Horkheimer: Star Hustler" อีกต่อไป</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="935">
@@ -13489,7 +13489,7 @@
         <v>หมากฝรั่งเหมาะสำหรับการเป่าฟองสบู่มากกว่า.</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="936">
@@ -13503,7 +13503,7 @@
         <v>วิทยากรคนนี้ได้เข้าร่วมงานพระราชทานพระบรมราชานุญาตหลายครั้ง</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="937">
@@ -13517,7 +13517,7 @@
         <v>เป็นเวลาหนึ่งปีที่รัฐบาลแคนาดาได้มีส่วนร่วมในการเจรจาลับ</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="938">
@@ -13531,7 +13531,7 @@
         <v>โกร์ถูกเรียกว่าเป็นผู้ว่าการ.</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13545,7 +13545,7 @@
         <v>Streetcap1 อยู่บนดวงจันทร์เมื่อเขาโพสต์ภาพจากยานสำรวจดวงจันทร์ของจีน Chang'e 3</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="940">
@@ -13559,7 +13559,7 @@
         <v>Change’e 3 ไม่ได้โพสต์คลิปลงในยูทูบ。</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="941">
@@ -13573,7 +13573,7 @@
         <v>แนวโน้มกำลังกลับมาอีกครั้ง</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13587,7 +13587,7 @@
         <v>มีทางเท้าอยู่ในใจของชาวนา</v>
       </c>
       <c r="D942" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="943">
@@ -13601,7 +13601,7 @@
         <v>ในขณะที่ซเดโน ชาราเป็นผู้เล่น NHL ที่สูงที่สุด ไมค์ ซวิกไม่ใช่หนึ่งในผู้เล่นที่สูงที่สุด</v>
       </c>
       <c r="D943" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="944">
@@ -13615,7 +13615,7 @@
         <v>Holding Back the River ขึ้นอันดับในชาร์ตสูงกกว่าอัลบั้มเปิดตัวของวง.</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="945">
@@ -13629,7 +13629,7 @@
         <v>กอร์ดอนทำคะแนนได้มากกว่าหนึ่งครั้งในเกมอื่นในฤดูกาลนี้</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="946">
@@ -13643,7 +13643,7 @@
         <v>Beat TV ออกอากาศเป็นเวลามากกว่าสองชั่วโมงในแต่ละครั้ง</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13657,7 +13657,7 @@
         <v>มีโรงเรียนมากกว่า 10 แห่งในประชุม Big 12</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13671,7 +13671,7 @@
         <v>พิพิธภัณฑ์เคลวินโกรฟในกลาสโกว์อยู่ในอินเดีย</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="949">
@@ -13685,7 +13685,7 @@
         <v>แอนเน็ต อาร์ทานี ไม่ได้เขียนเพลงทั้งหมดของเธอ</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="950">
@@ -13699,7 +13699,7 @@
         <v>เอมี่และอันนาเจอกันอีกครั้งหลังจากที่พวกเธอพบกันโดยบังเอิญที่คาเฟ่</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="951">
@@ -13713,7 +13713,7 @@
         <v>สนามบินบ็อบ อดัมส์ ตั้งอยู่ห่างจากสนามบินภูมิภาคยัมปา วัลเลย์ไปทางทิศตะวันออก 25 ไมล์</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="952">
@@ -13727,7 +13727,7 @@
         <v>ทุกคนไม่สมควรได้รับการดูแลสุขภาพจากรัฐบาล</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="953">
@@ -13741,7 +13741,7 @@
         <v>นีล กอร์ดอน ไม่ใช่คนที่แต่งตัวเก๋ไก๋</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="954">
@@ -13755,7 +13755,7 @@
         <v>คำแถลงมีจำนวนคำไม่เกินประมาณ 28 คำ</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="955">
@@ -13769,7 +13769,7 @@
         <v>ทุกคนพูดคุยเป็นระยะเวลาภายใน 5 นาทีของคนถัดไป</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="956">
@@ -13783,7 +13783,7 @@
         <v>แนนซี่ ฮาร์ท ดักลาส ไม่ได้เป็นสายลับภายใต้การนำของนายพลสโตนวอลล์ แจ็คสัน</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="957">
@@ -13797,7 +13797,7 @@
         <v>ประเทศไทยและกัมพูชายังไม่สามารถบรรลุข้อตกลงเกี่ยวกับความเป็นเจ้าของวัดได้</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13811,7 +13811,7 @@
         <v>มากกว่าสามสัปดาห์หลังจากการฆาตกรรมของแพมล่า โลอิส รีส ถูกควบคุมตัวโดยตำรวจ</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="959">
@@ -13839,7 +13839,7 @@
         <v>เจนเซน แอคเคิลส์ ไม่เป็นที่รู้จักจากบทบาทในโทรทัศน์ในฐานะ เจสัน ทีค ในสมอลวิลล์</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="961">
@@ -13853,7 +13853,7 @@
         <v>ถูกกว่าเป็นโหลกำกับโดยแมว</v>
       </c>
       <c r="D961" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="962">
@@ -13867,7 +13867,7 @@
         <v>พี่น้องโคเอนกำกับภาพยนตร์ระทึกขวัญเรื่องหนึ่ง</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13881,7 +13881,7 @@
         <v>มูฮัมหมัดเป็นศาสดา</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13895,7 +13895,7 @@
         <v>วีนัส วิลเลียมส์เล่นเดี่ยวในเทนนิส</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13909,7 +13909,7 @@
         <v>บริทนีย์ เมอร์ฟี แสดงในภาพยนตร์เรื่องหนึ่ง</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="966">
@@ -13923,7 +13923,7 @@
         <v>เบอร์มิวดาถูกล่าอาณานิคมในปี 1609</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13937,7 +13937,7 @@
         <v>แฮร์รี สไตล์ส และสมาชิกในวงของเขาได้ปล่อยอัลบั้มฟอล์กชื่อ Midnight Memories</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="968">
@@ -13951,7 +13951,7 @@
         <v>สัตว์มหัศจรรย์และที่ที่ค้นพบพวกมัน เป็นหนังสือเกี่ยวกับธรรมชาติ</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13965,7 +13965,7 @@
         <v>มิรคา เฟเดอเรอร์ เป็นนักเทนนิสที่เคยเล่นในระดับมืออาชีพและไม่เล่นอีกต่อไปแล้ว</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="970">
@@ -13979,7 +13979,7 @@
         <v>ชื่อเกิดของ Big Show คือ Paul Donald Wight II แม้ว่าเขาจะใช้ชื่อ Big Show ในการมวยปล้ำอาชีพ</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -13993,7 +13993,7 @@
         <v>เลสลี่ อักแกมส์ ปรากฏตัวในภาพยนตร์ที่กำกับโดยทิม มิลเลอร์</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14007,7 +14007,7 @@
         <v>วีนัส วิลเลียมส์เล่นเดี่ยวในเทนนิส</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14021,7 +14021,7 @@
         <v>ดรูว์ แบร์รี่มอร์ แสดงในภาพยนตร์เรื่องหนึ่ง</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14035,7 +14035,7 @@
         <v>ทอยสตอรี่ไม่ได้อิงจากเนื้อหาที่เผยแพร่ก่อนหน้านี้ ทำให้สามารถได้รับการเสนอชื่อเข้าชิงรางวัลบทภาพยนตร์ดั้งเดิมยอดเยี่ยมได้</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="975">
@@ -14049,7 +14049,7 @@
         <v>มาลาลา ยูซาฟไซ เป็นผู้สนับสนุนสิทธิในการศึกษาของผู้หญิง</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="976">
@@ -14063,7 +14063,7 @@
         <v>พีเป็นตัวเลขหนึ่ง</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14077,7 +14077,7 @@
         <v>ประชากรในอาเซอร์ไบจานมีอัตราการรู้หนังสือสูงมาก</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14091,7 +14091,7 @@
         <v>อิตาลีมีชื่อทางการที่ยาวกว่า</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14105,7 +14105,7 @@
         <v>แมตต์ โกรนิง ได้รับรางวัลพรีมไทม์เอ็มมี่สำหรับเรื่องเดอะซิมป์สันส์</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14119,7 +14119,7 @@
         <v>มูฮัมหมัดมีความสำคัญต่อศาสนา</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14133,7 +14133,7 @@
         <v>จอห์น แมคเอนโร เป็นนักเทนนิส</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14147,7 +14147,7 @@
         <v>แบล็คมิเรอร์เป็นม้าแข่ง</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14161,7 +14161,7 @@
         <v>Catching Fire เป็นแนวหนัง.</v>
       </c>
       <c r="D983" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="984">
@@ -14175,7 +14175,7 @@
         <v>จอห์น แมคเคน ถูกกล่าวหาว่าทุจริตในปี 1989 เป็นส่วนหนึ่งของกลุ่มคีติงไฟว์</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985" xml:space="preserve">
@@ -14195,7 +14195,7 @@
         <v>วาเลอเรียนกับเมืองแห่งพันดาวมีนักแสดงคนหนึ่ง</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14209,7 +14209,7 @@
         <v>วีนัส วิลเลียมส์เล่นเดี่ยวในเทนนิส</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14223,7 +14223,7 @@
         <v>มาร์การิตแห่งวาลัวมีพี่สาวหลายคน</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="988">
@@ -14237,7 +14237,7 @@
         <v>แมตต์ โกรนิง ได้รับแซนด์วิชเนื้ออิตาเลียนสิบชิ้นสำหรับเดอะซิมป์สันส์</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="989">
@@ -14251,7 +14251,7 @@
         <v>สมาคมนักแต่งเพลงแนชวิลล์นานาชาติให้การศึกษาเกี่ยวกับอุตสาหกรรมดนตรี</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14265,7 +14265,7 @@
         <v>แบทแมน บีกินส์ เกิดขึ้นก่อนการประกาศเอกราชของอเมริกาเหนือ</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14279,7 +14279,7 @@
         <v>ทอยสตอรี่ไม่ได้อิงจากเนื้อหาที่เผยแพร่ก่อนหน้านี้ ทำให้สามารถได้รับการเสนอชื่อเข้าชิงรางวัลบทภาพยนตร์ดั้งเดิมยอดเยี่ยมได้</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14293,7 +14293,7 @@
         <v>บิลลี่ โจเอล อยู่ในอุตสาหกรรมศิลปะการแสดง</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="993">
@@ -14307,7 +14307,7 @@
         <v>คาทชิงไฟร์ ถูกปล่อยออกมาในรูปแบบหนังสือปกอ่อน</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="994">
@@ -14321,7 +14321,7 @@
         <v>บริททานี เมอร์ฟี แสดงละคร。</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14335,7 +14335,7 @@
         <v>Foo Fighters สร้างเพลง.</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14349,7 +14349,7 @@
         <v>โบอิ้ง 777 เป็นเครื่องบินพาณิชย์ที่มีระยะทางบินไกลที่สุดในโลก</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14363,7 +14363,7 @@
         <v>มูฮัมหมัดมีความสำคัญต่อศาสนา</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14377,7 +14377,7 @@
         <v>ทรานส์ฟอร์มเมอร์ส: การแก้แค้นของผู้ตกสู่ความพินาศ เป็นภาพยนตร์เรื่องหนึ่ง</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14391,7 +14391,7 @@
         <v>ชื่อเวทีของบิ๊กโชว์คือ พอล โดนัลด์ ไวท์ ที่ 2</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14405,7 +14405,7 @@
         <v>มูฮัมหมัดมีความสำคัญต่อศาสนา</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14419,7 +14419,7 @@
         <v>ฮัวกิน ฟีนิกซ์ ได้กำกับภาพยนตร์แล้ว</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
   </sheetData>
